--- a/ae1013/documents/emailList.xlsx
+++ b/ae1013/documents/emailList.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10810"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10824"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ericinglert/Documents/GitHub/einglert.github.io/ae1013/documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84711A7E-B144-884A-B7C5-43BF571F01CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F98A479F-FAB0-1D41-8CDB-18916535DCA8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="5180" yWindow="1800" windowWidth="28040" windowHeight="17440" xr2:uid="{D48C7A5C-A6A7-0D4D-AE7C-3AC7CDC30510}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="627" uniqueCount="385">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="645" uniqueCount="399">
   <si>
     <t>UCID</t>
   </si>
@@ -1189,13 +1189,55 @@
   </si>
   <si>
     <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>M16385822</t>
+  </si>
+  <si>
+    <t>Autumn Renee</t>
+  </si>
+  <si>
+    <t>myers2au@mail.uc.edu</t>
+  </si>
+  <si>
+    <t>M16384395</t>
+  </si>
+  <si>
+    <t>Kuhel</t>
+  </si>
+  <si>
+    <t>Gerald Thomas</t>
+  </si>
+  <si>
+    <t>kuhelgt@mail.uc.edu</t>
+  </si>
+  <si>
+    <t>M17066743</t>
+  </si>
+  <si>
+    <t>grantjg@mail.uc.edu</t>
+  </si>
+  <si>
+    <t>Jack Girouard</t>
+  </si>
+  <si>
+    <t>M15643607</t>
+  </si>
+  <si>
+    <t>Armstrong</t>
+  </si>
+  <si>
+    <t>Noah Benjamin</t>
+  </si>
+  <si>
+    <t>armstrnb@mail.uc.edu</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="20" x14ac:knownFonts="1">
+  <fonts count="22" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1344,8 +1386,22 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <strike/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF515151"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="33">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1525,6 +1581,12 @@
         <bgColor indexed="65"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="10">
     <border>
@@ -1687,10 +1749,13 @@
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="42"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="42" applyFill="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="43">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1755,10 +1820,10 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{0F4C48B0-E636-904E-8172-DBF75C8AC5B6}" name="Table2" displayName="Table2" ref="A1:F87" totalsRowShown="0">
-  <autoFilter ref="A1:F87" xr:uid="{0F4C48B0-E636-904E-8172-DBF75C8AC5B6}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F87">
-    <sortCondition ref="A1:A87"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{0F4C48B0-E636-904E-8172-DBF75C8AC5B6}" name="Table2" displayName="Table2" ref="A1:F90" totalsRowShown="0">
+  <autoFilter ref="A1:F90" xr:uid="{0F4C48B0-E636-904E-8172-DBF75C8AC5B6}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F90">
+    <sortCondition ref="A1:A90"/>
   </sortState>
   <tableColumns count="6">
     <tableColumn id="1" xr3:uid="{0693825F-4066-864B-AD5D-0CFFA354B829}" name="UCID"/>
@@ -2103,10 +2168,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EFD509CC-6CA9-3743-9F13-EA53CF82DF7D}">
-  <dimension ref="A1:H87"/>
+  <dimension ref="A1:L94"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A41" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="H55" sqref="H55"/>
+    <sheetView tabSelected="1" topLeftCell="A48" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="H84" sqref="H84"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3417,7 +3482,7 @@
         <v>Elianna Jewel Colclasure</v>
       </c>
     </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>232</v>
       </c>
@@ -3444,7 +3509,7 @@
         <v>Alex William Tompkins</v>
       </c>
     </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>199</v>
       </c>
@@ -3471,7 +3536,7 @@
         <v>Stephen James Sagan</v>
       </c>
     </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>217</v>
       </c>
@@ -3498,7 +3563,7 @@
         <v>Kaelyn Raine Schulenburg</v>
       </c>
     </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>166</v>
       </c>
@@ -3525,7 +3590,7 @@
         <v>Vandan Jayesh Mistry</v>
       </c>
     </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>100</v>
       </c>
@@ -3553,7 +3618,7 @@
         <v>Kya Kya Harris</v>
       </c>
     </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>118</v>
       </c>
@@ -3580,7 +3645,7 @@
         <v>Sydney Faith Huffman</v>
       </c>
     </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>250</v>
       </c>
@@ -3607,7 +3672,7 @@
         <v>Macy A Williams</v>
       </c>
     </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>193</v>
       </c>
@@ -3635,7 +3700,7 @@
         <v>Yuridia Rebollar Pedraza</v>
       </c>
     </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>157</v>
       </c>
@@ -3662,7 +3727,7 @@
         <v>Brandt Joseph Menke</v>
       </c>
     </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>247</v>
       </c>
@@ -3689,7 +3754,7 @@
         <v>Kylie Renee Will</v>
       </c>
     </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>220</v>
       </c>
@@ -3716,7 +3781,7 @@
         <v>Henrietta Maxine Schultz</v>
       </c>
     </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>190</v>
       </c>
@@ -3743,7 +3808,7 @@
         <v>Ilya Pavlovich Prytup</v>
       </c>
     </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>226</v>
       </c>
@@ -3770,100 +3835,98 @@
         <v>Austin M Stout</v>
       </c>
     </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A62" t="s">
+    <row r="62" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A62" s="5" t="s">
+        <v>395</v>
+      </c>
+      <c r="B62" s="5" t="s">
+        <v>396</v>
+      </c>
+      <c r="C62" s="5" t="s">
+        <v>397</v>
+      </c>
+      <c r="D62" s="5" t="s">
+        <v>398</v>
+      </c>
+      <c r="E62" s="5" t="str">
+        <f>E61</f>
+        <v>saarinen-studio</v>
+      </c>
+      <c r="F62" s="5"/>
+      <c r="G62" s="5"/>
+      <c r="H62" s="5" t="str">
+        <f>Table2[[#This Row],[firstName]]&amp;G61&amp;Table2[[#This Row],[lastName]]</f>
+        <v>Noah Benjamin Armstrong</v>
+      </c>
+      <c r="I62" s="5"/>
+    </row>
+    <row r="63" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A63" t="s">
         <v>253</v>
       </c>
-      <c r="B62" t="s">
+      <c r="B63" t="s">
         <v>254</v>
       </c>
-      <c r="C62" t="s">
+      <c r="C63" t="s">
         <v>255</v>
       </c>
-      <c r="D62" t="s">
+      <c r="D63" t="s">
         <v>346</v>
-      </c>
-      <c r="E62" t="s">
-        <v>359</v>
-      </c>
-      <c r="F62" t="s">
-        <v>379</v>
-      </c>
-      <c r="G62" t="s">
-        <v>384</v>
-      </c>
-      <c r="H62" t="str">
-        <f>Table2[[#This Row],[firstName]]&amp;G62&amp;Table2[[#This Row],[lastName]]</f>
-        <v>Allen Ming Winterbottom</v>
-      </c>
-    </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A63" t="s">
-        <v>22</v>
-      </c>
-      <c r="B63" t="s">
-        <v>23</v>
-      </c>
-      <c r="C63" t="s">
-        <v>24</v>
-      </c>
-      <c r="D63" t="s">
-        <v>269</v>
       </c>
       <c r="E63" t="s">
         <v>359</v>
       </c>
-      <c r="F63" t="str">
+      <c r="F63" t="s">
+        <v>379</v>
+      </c>
+      <c r="G63" t="s">
+        <v>384</v>
+      </c>
+      <c r="H63" t="str">
+        <f>Table2[[#This Row],[firstName]]&amp;G63&amp;Table2[[#This Row],[lastName]]</f>
+        <v>Allen Ming Winterbottom</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A64" t="s">
+        <v>22</v>
+      </c>
+      <c r="B64" t="s">
+        <v>23</v>
+      </c>
+      <c r="C64" t="s">
+        <v>24</v>
+      </c>
+      <c r="D64" t="s">
+        <v>269</v>
+      </c>
+      <c r="E64" t="s">
+        <v>359</v>
+      </c>
+      <c r="F64" t="str">
         <f>groupList!C12</f>
         <v>https://discord.gg/W94UQfgw</v>
       </c>
-      <c r="G63" t="s">
-        <v>384</v>
-      </c>
-      <c r="H63" t="str">
-        <f>Table2[[#This Row],[firstName]]&amp;G63&amp;Table2[[#This Row],[lastName]]</f>
-        <v>Lola Iline Brown</v>
-      </c>
-    </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A64" t="s">
-        <v>196</v>
-      </c>
-      <c r="B64" t="s">
-        <v>197</v>
-      </c>
-      <c r="C64" t="s">
-        <v>198</v>
-      </c>
-      <c r="D64" t="s">
-        <v>327</v>
-      </c>
-      <c r="E64" t="s">
-        <v>359</v>
-      </c>
-      <c r="F64" t="s">
-        <v>379</v>
-      </c>
       <c r="G64" t="s">
         <v>384</v>
       </c>
       <c r="H64" t="str">
         <f>Table2[[#This Row],[firstName]]&amp;G64&amp;Table2[[#This Row],[lastName]]</f>
-        <v>Tyler Rivers</v>
-      </c>
-    </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.2">
+        <v>Lola Iline Brown</v>
+      </c>
+    </row>
+    <row r="65" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
-        <v>169</v>
+        <v>196</v>
       </c>
       <c r="B65" t="s">
-        <v>170</v>
+        <v>197</v>
       </c>
       <c r="C65" t="s">
-        <v>171</v>
+        <v>198</v>
       </c>
       <c r="D65" t="s">
-        <v>318</v>
+        <v>327</v>
       </c>
       <c r="E65" t="s">
         <v>359</v>
@@ -3876,21 +3939,21 @@
       </c>
       <c r="H65" t="str">
         <f>Table2[[#This Row],[firstName]]&amp;G65&amp;Table2[[#This Row],[lastName]]</f>
-        <v>Dayton Thor Muckerheide</v>
-      </c>
-    </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.2">
+        <v>Tyler Rivers</v>
+      </c>
+    </row>
+    <row r="66" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
-        <v>73</v>
+        <v>169</v>
       </c>
       <c r="B66" t="s">
-        <v>74</v>
+        <v>170</v>
       </c>
       <c r="C66" t="s">
-        <v>75</v>
+        <v>171</v>
       </c>
       <c r="D66" t="s">
-        <v>286</v>
+        <v>318</v>
       </c>
       <c r="E66" t="s">
         <v>359</v>
@@ -3903,21 +3966,21 @@
       </c>
       <c r="H66" t="str">
         <f>Table2[[#This Row],[firstName]]&amp;G66&amp;Table2[[#This Row],[lastName]]</f>
-        <v>Will Richard Dowdle</v>
-      </c>
-    </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.2">
+        <v>Dayton Thor Muckerheide</v>
+      </c>
+    </row>
+    <row r="67" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
-        <v>133</v>
+        <v>73</v>
       </c>
       <c r="B67" t="s">
-        <v>134</v>
+        <v>74</v>
       </c>
       <c r="C67" t="s">
-        <v>135</v>
+        <v>75</v>
       </c>
       <c r="D67" t="s">
-        <v>306</v>
+        <v>286</v>
       </c>
       <c r="E67" t="s">
         <v>359</v>
@@ -3930,103 +3993,101 @@
       </c>
       <c r="H67" t="str">
         <f>Table2[[#This Row],[firstName]]&amp;G67&amp;Table2[[#This Row],[lastName]]</f>
+        <v>Will Richard Dowdle</v>
+      </c>
+    </row>
+    <row r="68" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A68" t="s">
+        <v>133</v>
+      </c>
+      <c r="B68" t="s">
+        <v>134</v>
+      </c>
+      <c r="C68" t="s">
+        <v>135</v>
+      </c>
+      <c r="D68" t="s">
+        <v>306</v>
+      </c>
+      <c r="E68" t="s">
+        <v>359</v>
+      </c>
+      <c r="F68" t="s">
+        <v>379</v>
+      </c>
+      <c r="G68" t="s">
+        <v>384</v>
+      </c>
+      <c r="H68" t="str">
+        <f>Table2[[#This Row],[firstName]]&amp;G68&amp;Table2[[#This Row],[lastName]]</f>
         <v>Reaghan Marie Kryski</v>
       </c>
     </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A68" t="s">
+    <row r="69" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A69" s="5" t="s">
+        <v>392</v>
+      </c>
+      <c r="B69" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="C69" s="5" t="s">
+        <v>394</v>
+      </c>
+      <c r="D69" s="5" t="s">
+        <v>393</v>
+      </c>
+      <c r="E69" s="5" t="str">
+        <f>E68</f>
+        <v>aalto-studio</v>
+      </c>
+      <c r="F69" s="5"/>
+      <c r="G69" s="5"/>
+      <c r="H69" s="5" t="str">
+        <f>Table2[[#This Row],[firstName]]&amp;G61&amp;Table2[[#This Row],[lastName]]</f>
+        <v>Jack Girouard Grant</v>
+      </c>
+      <c r="I69" s="5"/>
+    </row>
+    <row r="70" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A70" t="s">
         <v>181</v>
       </c>
-      <c r="B68" t="s">
+      <c r="B70" t="s">
         <v>182</v>
       </c>
-      <c r="C68" t="s">
+      <c r="C70" t="s">
         <v>183</v>
       </c>
-      <c r="D68" t="s">
+      <c r="D70" t="s">
         <v>322</v>
       </c>
-      <c r="E68" t="s">
+      <c r="E70" t="s">
         <v>360</v>
       </c>
-      <c r="F68" t="str">
+      <c r="F70" t="str">
         <f>groupList!C13</f>
         <v>https://discord.gg/cUNbrNJu</v>
       </c>
-      <c r="G68" t="s">
-        <v>384</v>
-      </c>
-      <c r="H68" t="str">
-        <f>Table2[[#This Row],[firstName]]&amp;G68&amp;Table2[[#This Row],[lastName]]</f>
-        <v>Sruthi Paluri</v>
-      </c>
-    </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A69" t="s">
-        <v>160</v>
-      </c>
-      <c r="B69" t="s">
-        <v>161</v>
-      </c>
-      <c r="C69" t="s">
-        <v>162</v>
-      </c>
-      <c r="D69" t="s">
-        <v>315</v>
-      </c>
-      <c r="E69" t="s">
-        <v>360</v>
-      </c>
-      <c r="F69" t="s">
-        <v>381</v>
-      </c>
-      <c r="G69" t="s">
-        <v>384</v>
-      </c>
-      <c r="H69" t="str">
-        <f>Table2[[#This Row],[firstName]]&amp;G69&amp;Table2[[#This Row],[lastName]]</f>
-        <v>Stephen Christian Merrill III</v>
-      </c>
-    </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A70" t="s">
-        <v>52</v>
-      </c>
-      <c r="B70" t="s">
-        <v>53</v>
-      </c>
-      <c r="C70" t="s">
-        <v>54</v>
-      </c>
-      <c r="D70" t="s">
-        <v>279</v>
-      </c>
-      <c r="E70" t="s">
-        <v>360</v>
-      </c>
-      <c r="F70" t="s">
-        <v>381</v>
-      </c>
       <c r="G70" t="s">
         <v>384</v>
       </c>
       <c r="H70" t="str">
         <f>Table2[[#This Row],[firstName]]&amp;G70&amp;Table2[[#This Row],[lastName]]</f>
-        <v>Callie Rachelle Davidson</v>
-      </c>
-    </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.2">
+        <v>Sruthi Paluri</v>
+      </c>
+    </row>
+    <row r="71" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
-        <v>256</v>
+        <v>160</v>
       </c>
       <c r="B71" t="s">
-        <v>257</v>
+        <v>161</v>
       </c>
       <c r="C71" t="s">
-        <v>258</v>
+        <v>162</v>
       </c>
       <c r="D71" t="s">
-        <v>347</v>
+        <v>315</v>
       </c>
       <c r="E71" t="s">
         <v>360</v>
@@ -4039,21 +4100,21 @@
       </c>
       <c r="H71" t="str">
         <f>Table2[[#This Row],[firstName]]&amp;G71&amp;Table2[[#This Row],[lastName]]</f>
-        <v>Evan James Zido</v>
-      </c>
-    </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.2">
+        <v>Stephen Christian Merrill III</v>
+      </c>
+    </row>
+    <row r="72" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
-        <v>148</v>
+        <v>52</v>
       </c>
       <c r="B72" t="s">
-        <v>149</v>
+        <v>53</v>
       </c>
       <c r="C72" t="s">
-        <v>150</v>
+        <v>54</v>
       </c>
       <c r="D72" t="s">
-        <v>311</v>
+        <v>279</v>
       </c>
       <c r="E72" t="s">
         <v>360</v>
@@ -4066,21 +4127,23 @@
       </c>
       <c r="H72" t="str">
         <f>Table2[[#This Row],[firstName]]&amp;G72&amp;Table2[[#This Row],[lastName]]</f>
-        <v>Cate Yu Maren</v>
-      </c>
-    </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.2">
+        <v>Callie Rachelle Davidson</v>
+      </c>
+      <c r="K72" s="4"/>
+      <c r="L72" s="1"/>
+    </row>
+    <row r="73" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
-        <v>136</v>
+        <v>256</v>
       </c>
       <c r="B73" t="s">
-        <v>137</v>
+        <v>257</v>
       </c>
       <c r="C73" t="s">
-        <v>138</v>
+        <v>258</v>
       </c>
       <c r="D73" t="s">
-        <v>307</v>
+        <v>347</v>
       </c>
       <c r="E73" t="s">
         <v>360</v>
@@ -4093,130 +4156,127 @@
       </c>
       <c r="H73" t="str">
         <f>Table2[[#This Row],[firstName]]&amp;G73&amp;Table2[[#This Row],[lastName]]</f>
+        <v>Evan James Zido</v>
+      </c>
+    </row>
+    <row r="74" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A74" t="s">
+        <v>148</v>
+      </c>
+      <c r="B74" t="s">
+        <v>149</v>
+      </c>
+      <c r="C74" t="s">
+        <v>150</v>
+      </c>
+      <c r="D74" t="s">
+        <v>311</v>
+      </c>
+      <c r="E74" t="s">
+        <v>360</v>
+      </c>
+      <c r="F74" t="s">
+        <v>381</v>
+      </c>
+      <c r="G74" t="s">
+        <v>384</v>
+      </c>
+      <c r="H74" t="str">
+        <f>Table2[[#This Row],[firstName]]&amp;G74&amp;Table2[[#This Row],[lastName]]</f>
+        <v>Cate Yu Maren</v>
+      </c>
+    </row>
+    <row r="75" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A75" t="s">
+        <v>136</v>
+      </c>
+      <c r="B75" t="s">
+        <v>137</v>
+      </c>
+      <c r="C75" t="s">
+        <v>138</v>
+      </c>
+      <c r="D75" t="s">
+        <v>307</v>
+      </c>
+      <c r="E75" t="s">
+        <v>360</v>
+      </c>
+      <c r="F75" t="s">
+        <v>381</v>
+      </c>
+      <c r="G75" t="s">
+        <v>384</v>
+      </c>
+      <c r="H75" t="str">
+        <f>Table2[[#This Row],[firstName]]&amp;G75&amp;Table2[[#This Row],[lastName]]</f>
         <v>Piper Dawn Leis</v>
       </c>
     </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A74" t="s">
+    <row r="76" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A76" s="5" t="s">
+        <v>388</v>
+      </c>
+      <c r="B76" s="5" t="s">
+        <v>389</v>
+      </c>
+      <c r="C76" s="5" t="s">
+        <v>390</v>
+      </c>
+      <c r="D76" s="5" t="s">
+        <v>391</v>
+      </c>
+      <c r="E76" s="5" t="s">
+        <v>360</v>
+      </c>
+      <c r="F76" s="5"/>
+      <c r="G76" s="5"/>
+      <c r="H76" s="5" t="str">
+        <f>Table2[[#This Row],[firstName]]&amp;G61&amp;Table2[[#This Row],[lastName]]</f>
+        <v>Gerald Thomas Kuhel</v>
+      </c>
+      <c r="I76" s="5"/>
+    </row>
+    <row r="77" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A77" t="s">
         <v>49</v>
       </c>
-      <c r="B74" t="s">
+      <c r="B77" t="s">
         <v>50</v>
       </c>
-      <c r="C74" t="s">
+      <c r="C77" t="s">
         <v>51</v>
       </c>
-      <c r="D74" t="s">
+      <c r="D77" t="s">
         <v>278</v>
       </c>
-      <c r="E74" t="s">
+      <c r="E77" t="s">
         <v>361</v>
       </c>
-      <c r="F74" t="str">
+      <c r="F77" t="str">
         <f>groupList!C14</f>
         <v>https://discord.gg/D3YRdGeQ</v>
       </c>
-      <c r="G74" t="s">
-        <v>384</v>
-      </c>
-      <c r="H74" t="str">
-        <f>Table2[[#This Row],[firstName]]&amp;G74&amp;Table2[[#This Row],[lastName]]</f>
-        <v>Gage Alexander William Crenshaw</v>
-      </c>
-    </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A75" t="s">
-        <v>235</v>
-      </c>
-      <c r="B75" t="s">
-        <v>236</v>
-      </c>
-      <c r="C75" t="s">
-        <v>237</v>
-      </c>
-      <c r="D75" t="s">
-        <v>340</v>
-      </c>
-      <c r="E75" t="s">
-        <v>361</v>
-      </c>
-      <c r="F75" t="s">
-        <v>382</v>
-      </c>
-      <c r="G75" t="s">
-        <v>384</v>
-      </c>
-      <c r="H75" t="str">
-        <f>Table2[[#This Row],[firstName]]&amp;G75&amp;Table2[[#This Row],[lastName]]</f>
-        <v>Zaida Nicole Velasco Merino V</v>
-      </c>
-    </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A76" t="s">
-        <v>10</v>
-      </c>
-      <c r="B76" t="s">
-        <v>11</v>
-      </c>
-      <c r="C76" t="s">
-        <v>12</v>
-      </c>
-      <c r="D76" t="s">
-        <v>265</v>
-      </c>
-      <c r="E76" t="s">
-        <v>361</v>
-      </c>
-      <c r="F76" t="s">
-        <v>382</v>
-      </c>
-      <c r="G76" t="s">
-        <v>384</v>
-      </c>
-      <c r="H76" t="str">
-        <f>Table2[[#This Row],[firstName]]&amp;G76&amp;Table2[[#This Row],[lastName]]</f>
-        <v>Chase B Bailey</v>
-      </c>
-    </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A77" t="s">
-        <v>31</v>
-      </c>
-      <c r="B77" t="s">
-        <v>32</v>
-      </c>
-      <c r="C77" t="s">
-        <v>33</v>
-      </c>
-      <c r="D77" t="s">
-        <v>272</v>
-      </c>
-      <c r="E77" t="s">
-        <v>361</v>
-      </c>
-      <c r="F77" t="s">
-        <v>382</v>
-      </c>
       <c r="G77" t="s">
         <v>384</v>
       </c>
       <c r="H77" t="str">
         <f>Table2[[#This Row],[firstName]]&amp;G77&amp;Table2[[#This Row],[lastName]]</f>
-        <v>Connor Coco-Gray</v>
-      </c>
-    </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.2">
+        <v>Gage Alexander William Crenshaw</v>
+      </c>
+    </row>
+    <row r="78" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
-        <v>58</v>
+        <v>235</v>
       </c>
       <c r="B78" t="s">
-        <v>59</v>
+        <v>236</v>
       </c>
       <c r="C78" t="s">
-        <v>60</v>
+        <v>237</v>
       </c>
       <c r="D78" t="s">
-        <v>281</v>
+        <v>340</v>
       </c>
       <c r="E78" t="s">
         <v>361</v>
@@ -4229,21 +4289,21 @@
       </c>
       <c r="H78" t="str">
         <f>Table2[[#This Row],[firstName]]&amp;G78&amp;Table2[[#This Row],[lastName]]</f>
-        <v>Isabella Rhea Dew</v>
-      </c>
-    </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="0.2">
+        <v>Zaida Nicole Velasco Merino V</v>
+      </c>
+    </row>
+    <row r="79" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B79" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="C79" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D79" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="E79" t="s">
         <v>361</v>
@@ -4256,21 +4316,21 @@
       </c>
       <c r="H79" t="str">
         <f>Table2[[#This Row],[firstName]]&amp;G79&amp;Table2[[#This Row],[lastName]]</f>
-        <v>Jumi Faith Aremu</v>
-      </c>
-    </row>
-    <row r="80" spans="1:8" x14ac:dyDescent="0.2">
+        <v>Chase B Bailey</v>
+      </c>
+    </row>
+    <row r="80" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
-        <v>112</v>
+        <v>31</v>
       </c>
       <c r="B80" t="s">
-        <v>113</v>
+        <v>32</v>
       </c>
       <c r="C80" t="s">
-        <v>114</v>
+        <v>33</v>
       </c>
       <c r="D80" t="s">
-        <v>299</v>
+        <v>272</v>
       </c>
       <c r="E80" t="s">
         <v>361</v>
@@ -4283,130 +4343,127 @@
       </c>
       <c r="H80" t="str">
         <f>Table2[[#This Row],[firstName]]&amp;G80&amp;Table2[[#This Row],[lastName]]</f>
+        <v>Connor Coco-Gray</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A81" t="s">
+        <v>58</v>
+      </c>
+      <c r="B81" t="s">
+        <v>59</v>
+      </c>
+      <c r="C81" t="s">
+        <v>60</v>
+      </c>
+      <c r="D81" t="s">
+        <v>281</v>
+      </c>
+      <c r="E81" t="s">
+        <v>361</v>
+      </c>
+      <c r="F81" t="s">
+        <v>382</v>
+      </c>
+      <c r="G81" t="s">
+        <v>384</v>
+      </c>
+      <c r="H81" t="str">
+        <f>Table2[[#This Row],[firstName]]&amp;G81&amp;Table2[[#This Row],[lastName]]</f>
+        <v>Isabella Rhea Dew</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A82" t="s">
+        <v>112</v>
+      </c>
+      <c r="B82" t="s">
+        <v>113</v>
+      </c>
+      <c r="C82" t="s">
+        <v>114</v>
+      </c>
+      <c r="D82" t="s">
+        <v>299</v>
+      </c>
+      <c r="E82" t="s">
+        <v>361</v>
+      </c>
+      <c r="F82" t="s">
+        <v>382</v>
+      </c>
+      <c r="G82" t="s">
+        <v>384</v>
+      </c>
+      <c r="H82" t="str">
+        <f>Table2[[#This Row],[firstName]]&amp;G82&amp;Table2[[#This Row],[lastName]]</f>
         <v>Joe John Hollback</v>
       </c>
     </row>
-    <row r="81" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A81" t="s">
+    <row r="83" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A83" s="5" t="s">
+        <v>385</v>
+      </c>
+      <c r="B83" s="5" t="s">
+        <v>179</v>
+      </c>
+      <c r="C83" s="5" t="s">
+        <v>386</v>
+      </c>
+      <c r="D83" s="5" t="s">
+        <v>387</v>
+      </c>
+      <c r="E83" s="5" t="s">
+        <v>361</v>
+      </c>
+      <c r="F83" s="5"/>
+      <c r="G83" s="5"/>
+      <c r="H83" s="5" t="str">
+        <f>Table2[[#This Row],[firstName]]&amp;G61&amp;Table2[[#This Row],[lastName]]</f>
+        <v>Autumn Renee Myers</v>
+      </c>
+      <c r="I83" s="5"/>
+    </row>
+    <row r="84" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A84" t="s">
         <v>94</v>
       </c>
-      <c r="B81" t="s">
+      <c r="B84" t="s">
         <v>95</v>
       </c>
-      <c r="C81" t="s">
+      <c r="C84" t="s">
         <v>96</v>
       </c>
-      <c r="D81" t="s">
+      <c r="D84" t="s">
         <v>293</v>
       </c>
-      <c r="E81" t="s">
+      <c r="E84" t="s">
         <v>362</v>
       </c>
-      <c r="F81" t="str">
+      <c r="F84" t="str">
         <f>groupList!C15</f>
         <v>https://discord.gg/eTbVRC9U</v>
       </c>
-      <c r="G81" t="s">
-        <v>384</v>
-      </c>
-      <c r="H81" t="str">
-        <f>Table2[[#This Row],[firstName]]&amp;G81&amp;Table2[[#This Row],[lastName]]</f>
-        <v>Gracie N Haddad</v>
-      </c>
-    </row>
-    <row r="82" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A82" t="s">
-        <v>25</v>
-      </c>
-      <c r="B82" t="s">
-        <v>26</v>
-      </c>
-      <c r="C82" t="s">
-        <v>27</v>
-      </c>
-      <c r="D82" t="s">
-        <v>270</v>
-      </c>
-      <c r="E82" t="s">
-        <v>362</v>
-      </c>
-      <c r="F82" t="s">
-        <v>383</v>
-      </c>
-      <c r="G82" t="s">
-        <v>384</v>
-      </c>
-      <c r="H82" t="str">
-        <f>Table2[[#This Row],[firstName]]&amp;G82&amp;Table2[[#This Row],[lastName]]</f>
-        <v>Lucas Timothy Brummitt</v>
-      </c>
-    </row>
-    <row r="83" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A83" t="s">
-        <v>85</v>
-      </c>
-      <c r="B83" t="s">
-        <v>86</v>
-      </c>
-      <c r="C83" t="s">
-        <v>87</v>
-      </c>
-      <c r="D83" t="s">
-        <v>290</v>
-      </c>
-      <c r="E83" t="s">
-        <v>362</v>
-      </c>
-      <c r="F83" t="s">
-        <v>383</v>
-      </c>
-      <c r="G83" t="s">
-        <v>384</v>
-      </c>
-      <c r="H83" t="str">
-        <f>Table2[[#This Row],[firstName]]&amp;G83&amp;Table2[[#This Row],[lastName]]</f>
-        <v>Aries Nicole Grant</v>
-      </c>
-    </row>
-    <row r="84" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A84" t="s">
-        <v>70</v>
-      </c>
-      <c r="B84" t="s">
-        <v>71</v>
-      </c>
-      <c r="C84" t="s">
-        <v>72</v>
-      </c>
-      <c r="D84" t="s">
-        <v>285</v>
-      </c>
-      <c r="E84" t="s">
-        <v>362</v>
-      </c>
-      <c r="F84" t="s">
-        <v>383</v>
-      </c>
       <c r="G84" t="s">
         <v>384</v>
       </c>
       <c r="H84" t="str">
         <f>Table2[[#This Row],[firstName]]&amp;G84&amp;Table2[[#This Row],[lastName]]</f>
-        <v>Saanjh Dodwani</v>
-      </c>
-    </row>
-    <row r="85" spans="1:8" x14ac:dyDescent="0.2">
+        <v>Gracie N Haddad</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
-        <v>244</v>
+        <v>25</v>
       </c>
       <c r="B85" t="s">
-        <v>245</v>
+        <v>26</v>
       </c>
       <c r="C85" t="s">
-        <v>246</v>
+        <v>27</v>
       </c>
       <c r="D85" t="s">
-        <v>343</v>
+        <v>270</v>
       </c>
       <c r="E85" t="s">
         <v>362</v>
@@ -4419,21 +4476,21 @@
       </c>
       <c r="H85" t="str">
         <f>Table2[[#This Row],[firstName]]&amp;G85&amp;Table2[[#This Row],[lastName]]</f>
-        <v>George Kinsey Webb</v>
-      </c>
-    </row>
-    <row r="86" spans="1:8" x14ac:dyDescent="0.2">
+        <v>Lucas Timothy Brummitt</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
-        <v>4</v>
+        <v>85</v>
       </c>
       <c r="B86" t="s">
-        <v>5</v>
+        <v>86</v>
       </c>
       <c r="C86" t="s">
-        <v>6</v>
+        <v>87</v>
       </c>
       <c r="D86" t="s">
-        <v>263</v>
+        <v>290</v>
       </c>
       <c r="E86" t="s">
         <v>362</v>
@@ -4446,21 +4503,21 @@
       </c>
       <c r="H86" t="str">
         <f>Table2[[#This Row],[firstName]]&amp;G86&amp;Table2[[#This Row],[lastName]]</f>
-        <v>Avery Michelle Allen</v>
-      </c>
-    </row>
-    <row r="87" spans="1:8" x14ac:dyDescent="0.2">
+        <v>Aries Nicole Grant</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
-        <v>130</v>
+        <v>70</v>
       </c>
       <c r="B87" t="s">
-        <v>131</v>
+        <v>71</v>
       </c>
       <c r="C87" t="s">
-        <v>132</v>
+        <v>72</v>
       </c>
       <c r="D87" t="s">
-        <v>305</v>
+        <v>285</v>
       </c>
       <c r="E87" t="s">
         <v>362</v>
@@ -4473,7 +4530,111 @@
       </c>
       <c r="H87" t="str">
         <f>Table2[[#This Row],[firstName]]&amp;G87&amp;Table2[[#This Row],[lastName]]</f>
+        <v>Saanjh Dodwani</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A88" t="s">
+        <v>244</v>
+      </c>
+      <c r="B88" t="s">
+        <v>245</v>
+      </c>
+      <c r="C88" t="s">
+        <v>246</v>
+      </c>
+      <c r="D88" t="s">
+        <v>343</v>
+      </c>
+      <c r="E88" t="s">
+        <v>362</v>
+      </c>
+      <c r="F88" t="s">
+        <v>383</v>
+      </c>
+      <c r="G88" t="s">
+        <v>384</v>
+      </c>
+      <c r="H88" t="str">
+        <f>Table2[[#This Row],[firstName]]&amp;G88&amp;Table2[[#This Row],[lastName]]</f>
+        <v>George Kinsey Webb</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A89" t="s">
+        <v>4</v>
+      </c>
+      <c r="B89" t="s">
+        <v>5</v>
+      </c>
+      <c r="C89" t="s">
+        <v>6</v>
+      </c>
+      <c r="D89" t="s">
+        <v>263</v>
+      </c>
+      <c r="E89" t="s">
+        <v>362</v>
+      </c>
+      <c r="F89" t="s">
+        <v>383</v>
+      </c>
+      <c r="G89" t="s">
+        <v>384</v>
+      </c>
+      <c r="H89" t="str">
+        <f>Table2[[#This Row],[firstName]]&amp;G89&amp;Table2[[#This Row],[lastName]]</f>
+        <v>Avery Michelle Allen</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A90" t="s">
+        <v>130</v>
+      </c>
+      <c r="B90" t="s">
+        <v>131</v>
+      </c>
+      <c r="C90" t="s">
+        <v>132</v>
+      </c>
+      <c r="D90" t="s">
+        <v>305</v>
+      </c>
+      <c r="E90" t="s">
+        <v>362</v>
+      </c>
+      <c r="F90" t="s">
+        <v>383</v>
+      </c>
+      <c r="G90" t="s">
+        <v>384</v>
+      </c>
+      <c r="H90" t="str">
+        <f>Table2[[#This Row],[firstName]]&amp;G90&amp;Table2[[#This Row],[lastName]]</f>
         <v>Kayleigh Nichole Keyes</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A94" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B94" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C94" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D94" s="3" t="s">
+        <v>264</v>
+      </c>
+      <c r="E94" s="3" t="s">
+        <v>361</v>
+      </c>
+      <c r="F94" s="3" t="s">
+        <v>382</v>
+      </c>
+      <c r="G94" t="s">
+        <v>384</v>
       </c>
     </row>
   </sheetData>

--- a/ae1013/documents/emailList.xlsx
+++ b/ae1013/documents/emailList.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ericinglert/Documents/GitHub/einglert.github.io/ae1013/documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F98A479F-FAB0-1D41-8CDB-18916535DCA8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85DA63B9-800B-4B48-9F57-7661A553AFF0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="5180" yWindow="1800" windowWidth="28040" windowHeight="17440" xr2:uid="{D48C7A5C-A6A7-0D4D-AE7C-3AC7CDC30510}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="645" uniqueCount="399">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="649" uniqueCount="403">
   <si>
     <t>UCID</t>
   </si>
@@ -1231,6 +1231,18 @@
   </si>
   <si>
     <t>armstrnb@mail.uc.edu</t>
+  </si>
+  <si>
+    <t>M17263720</t>
+  </si>
+  <si>
+    <t>rosaleji@mail.uc.edu</t>
+  </si>
+  <si>
+    <t>Rosales-Cuevas</t>
+  </si>
+  <si>
+    <t>Jostin</t>
   </si>
 </sst>
 </file>
@@ -1749,13 +1761,15 @@
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="42"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="42" applyFill="1"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="43">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1820,10 +1834,10 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{0F4C48B0-E636-904E-8172-DBF75C8AC5B6}" name="Table2" displayName="Table2" ref="A1:F90" totalsRowShown="0">
-  <autoFilter ref="A1:F90" xr:uid="{0F4C48B0-E636-904E-8172-DBF75C8AC5B6}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F90">
-    <sortCondition ref="A1:A90"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{0F4C48B0-E636-904E-8172-DBF75C8AC5B6}" name="Table2" displayName="Table2" ref="A1:F91" totalsRowShown="0">
+  <autoFilter ref="A1:F91" xr:uid="{0F4C48B0-E636-904E-8172-DBF75C8AC5B6}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F91">
+    <sortCondition ref="A1:A91"/>
   </sortState>
   <tableColumns count="6">
     <tableColumn id="1" xr3:uid="{0693825F-4066-864B-AD5D-0CFFA354B829}" name="UCID"/>
@@ -2168,10 +2182,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EFD509CC-6CA9-3743-9F13-EA53CF82DF7D}">
-  <dimension ref="A1:L94"/>
+  <dimension ref="A1:L95"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A48" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="H84" sqref="H84"/>
+    <sheetView tabSelected="1" topLeftCell="A44" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="A56" sqref="A56:F56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3482,7 +3496,7 @@
         <v>Elianna Jewel Colclasure</v>
       </c>
     </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>232</v>
       </c>
@@ -3509,7 +3523,7 @@
         <v>Alex William Tompkins</v>
       </c>
     </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>199</v>
       </c>
@@ -3536,7 +3550,7 @@
         <v>Stephen James Sagan</v>
       </c>
     </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>217</v>
       </c>
@@ -3563,7 +3577,7 @@
         <v>Kaelyn Raine Schulenburg</v>
       </c>
     </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>166</v>
       </c>
@@ -3590,7 +3604,7 @@
         <v>Vandan Jayesh Mistry</v>
       </c>
     </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>100</v>
       </c>
@@ -3618,7 +3632,7 @@
         <v>Kya Kya Harris</v>
       </c>
     </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>118</v>
       </c>
@@ -3645,7 +3659,7 @@
         <v>Sydney Faith Huffman</v>
       </c>
     </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>250</v>
       </c>
@@ -3672,73 +3686,69 @@
         <v>Macy A Williams</v>
       </c>
     </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A56" t="s">
+    <row r="56" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A56" s="5" t="s">
+        <v>399</v>
+      </c>
+      <c r="B56" s="5" t="s">
+        <v>401</v>
+      </c>
+      <c r="C56" s="5" t="s">
+        <v>402</v>
+      </c>
+      <c r="D56" s="5" t="s">
+        <v>400</v>
+      </c>
+      <c r="E56" s="5" t="str">
+        <f>E55</f>
+        <v>gropius-studio</v>
+      </c>
+      <c r="F56" s="7"/>
+      <c r="H56" t="str">
+        <f>Table2[[#This Row],[firstName]]&amp;G26&amp;Table2[[#This Row],[lastName]]</f>
+        <v>Jostin Rosales-Cuevas</v>
+      </c>
+    </row>
+    <row r="57" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A57" t="s">
         <v>193</v>
       </c>
-      <c r="B56" t="s">
+      <c r="B57" t="s">
         <v>194</v>
       </c>
-      <c r="C56" t="s">
+      <c r="C57" t="s">
         <v>195</v>
       </c>
-      <c r="D56" t="s">
+      <c r="D57" t="s">
         <v>326</v>
       </c>
-      <c r="E56" t="s">
+      <c r="E57" t="s">
         <v>358</v>
       </c>
-      <c r="F56" t="str">
+      <c r="F57" t="str">
         <f>groupList!C11</f>
         <v>https://discord.gg/D5C6XMny</v>
       </c>
-      <c r="G56" t="s">
-        <v>384</v>
-      </c>
-      <c r="H56" t="str">
-        <f>Table2[[#This Row],[firstName]]&amp;G56&amp;Table2[[#This Row],[lastName]]</f>
-        <v>Yuridia Rebollar Pedraza</v>
-      </c>
-    </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A57" t="s">
-        <v>157</v>
-      </c>
-      <c r="B57" t="s">
-        <v>158</v>
-      </c>
-      <c r="C57" t="s">
-        <v>159</v>
-      </c>
-      <c r="D57" t="s">
-        <v>314</v>
-      </c>
-      <c r="E57" t="s">
-        <v>358</v>
-      </c>
-      <c r="F57" t="s">
-        <v>378</v>
-      </c>
       <c r="G57" t="s">
         <v>384</v>
       </c>
       <c r="H57" t="str">
         <f>Table2[[#This Row],[firstName]]&amp;G57&amp;Table2[[#This Row],[lastName]]</f>
-        <v>Brandt Joseph Menke</v>
-      </c>
-    </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.2">
+        <v>Yuridia Rebollar Pedraza</v>
+      </c>
+    </row>
+    <row r="58" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
-        <v>247</v>
+        <v>157</v>
       </c>
       <c r="B58" t="s">
-        <v>248</v>
+        <v>158</v>
       </c>
       <c r="C58" t="s">
-        <v>249</v>
+        <v>159</v>
       </c>
       <c r="D58" t="s">
-        <v>344</v>
+        <v>314</v>
       </c>
       <c r="E58" t="s">
         <v>358</v>
@@ -3751,21 +3761,21 @@
       </c>
       <c r="H58" t="str">
         <f>Table2[[#This Row],[firstName]]&amp;G58&amp;Table2[[#This Row],[lastName]]</f>
-        <v>Kylie Renee Will</v>
-      </c>
-    </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.2">
+        <v>Brandt Joseph Menke</v>
+      </c>
+    </row>
+    <row r="59" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
-        <v>220</v>
+        <v>247</v>
       </c>
       <c r="B59" t="s">
-        <v>221</v>
+        <v>248</v>
       </c>
       <c r="C59" t="s">
-        <v>222</v>
+        <v>249</v>
       </c>
       <c r="D59" t="s">
-        <v>335</v>
+        <v>344</v>
       </c>
       <c r="E59" t="s">
         <v>358</v>
@@ -3778,21 +3788,21 @@
       </c>
       <c r="H59" t="str">
         <f>Table2[[#This Row],[firstName]]&amp;G59&amp;Table2[[#This Row],[lastName]]</f>
-        <v>Henrietta Maxine Schultz</v>
-      </c>
-    </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.2">
+        <v>Kylie Renee Will</v>
+      </c>
+    </row>
+    <row r="60" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
-        <v>190</v>
+        <v>220</v>
       </c>
       <c r="B60" t="s">
-        <v>191</v>
+        <v>221</v>
       </c>
       <c r="C60" t="s">
-        <v>192</v>
+        <v>222</v>
       </c>
       <c r="D60" t="s">
-        <v>325</v>
+        <v>335</v>
       </c>
       <c r="E60" t="s">
         <v>358</v>
@@ -3805,21 +3815,21 @@
       </c>
       <c r="H60" t="str">
         <f>Table2[[#This Row],[firstName]]&amp;G60&amp;Table2[[#This Row],[lastName]]</f>
-        <v>Ilya Pavlovich Prytup</v>
-      </c>
-    </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.2">
+        <v>Henrietta Maxine Schultz</v>
+      </c>
+    </row>
+    <row r="61" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
-        <v>226</v>
+        <v>190</v>
       </c>
       <c r="B61" t="s">
-        <v>227</v>
+        <v>191</v>
       </c>
       <c r="C61" t="s">
-        <v>228</v>
+        <v>192</v>
       </c>
       <c r="D61" t="s">
-        <v>337</v>
+        <v>325</v>
       </c>
       <c r="E61" t="s">
         <v>358</v>
@@ -3832,128 +3842,130 @@
       </c>
       <c r="H61" t="str">
         <f>Table2[[#This Row],[firstName]]&amp;G61&amp;Table2[[#This Row],[lastName]]</f>
+        <v>Ilya Pavlovich Prytup</v>
+      </c>
+    </row>
+    <row r="62" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A62" t="s">
+        <v>226</v>
+      </c>
+      <c r="B62" t="s">
+        <v>227</v>
+      </c>
+      <c r="C62" t="s">
+        <v>228</v>
+      </c>
+      <c r="D62" t="s">
+        <v>337</v>
+      </c>
+      <c r="E62" t="s">
+        <v>358</v>
+      </c>
+      <c r="F62" t="s">
+        <v>378</v>
+      </c>
+      <c r="G62" t="s">
+        <v>384</v>
+      </c>
+      <c r="H62" t="str">
+        <f>Table2[[#This Row],[firstName]]&amp;G62&amp;Table2[[#This Row],[lastName]]</f>
         <v>Austin M Stout</v>
       </c>
-    </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A62" s="5" t="s">
+      <c r="K62" s="4"/>
+      <c r="L62" s="6"/>
+    </row>
+    <row r="63" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A63" s="5" t="s">
         <v>395</v>
       </c>
-      <c r="B62" s="5" t="s">
+      <c r="B63" s="5" t="s">
         <v>396</v>
       </c>
-      <c r="C62" s="5" t="s">
+      <c r="C63" s="5" t="s">
         <v>397</v>
       </c>
-      <c r="D62" s="5" t="s">
+      <c r="D63" s="5" t="s">
         <v>398</v>
       </c>
-      <c r="E62" s="5" t="str">
-        <f>E61</f>
+      <c r="E63" s="5" t="str">
+        <f>E62</f>
         <v>saarinen-studio</v>
       </c>
-      <c r="F62" s="5"/>
-      <c r="G62" s="5"/>
-      <c r="H62" s="5" t="str">
-        <f>Table2[[#This Row],[firstName]]&amp;G61&amp;Table2[[#This Row],[lastName]]</f>
+      <c r="F63" s="5"/>
+      <c r="G63" s="5"/>
+      <c r="H63" s="5" t="str">
+        <f>Table2[[#This Row],[firstName]]&amp;G62&amp;Table2[[#This Row],[lastName]]</f>
         <v>Noah Benjamin Armstrong</v>
       </c>
-      <c r="I62" s="5"/>
-    </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A63" t="s">
+      <c r="I63" s="5"/>
+    </row>
+    <row r="64" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A64" t="s">
         <v>253</v>
       </c>
-      <c r="B63" t="s">
+      <c r="B64" t="s">
         <v>254</v>
       </c>
-      <c r="C63" t="s">
+      <c r="C64" t="s">
         <v>255</v>
       </c>
-      <c r="D63" t="s">
+      <c r="D64" t="s">
         <v>346</v>
-      </c>
-      <c r="E63" t="s">
-        <v>359</v>
-      </c>
-      <c r="F63" t="s">
-        <v>379</v>
-      </c>
-      <c r="G63" t="s">
-        <v>384</v>
-      </c>
-      <c r="H63" t="str">
-        <f>Table2[[#This Row],[firstName]]&amp;G63&amp;Table2[[#This Row],[lastName]]</f>
-        <v>Allen Ming Winterbottom</v>
-      </c>
-    </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A64" t="s">
-        <v>22</v>
-      </c>
-      <c r="B64" t="s">
-        <v>23</v>
-      </c>
-      <c r="C64" t="s">
-        <v>24</v>
-      </c>
-      <c r="D64" t="s">
-        <v>269</v>
       </c>
       <c r="E64" t="s">
         <v>359</v>
       </c>
-      <c r="F64" t="str">
+      <c r="F64" t="s">
+        <v>379</v>
+      </c>
+      <c r="G64" t="s">
+        <v>384</v>
+      </c>
+      <c r="H64" t="str">
+        <f>Table2[[#This Row],[firstName]]&amp;G64&amp;Table2[[#This Row],[lastName]]</f>
+        <v>Allen Ming Winterbottom</v>
+      </c>
+    </row>
+    <row r="65" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A65" t="s">
+        <v>22</v>
+      </c>
+      <c r="B65" t="s">
+        <v>23</v>
+      </c>
+      <c r="C65" t="s">
+        <v>24</v>
+      </c>
+      <c r="D65" t="s">
+        <v>269</v>
+      </c>
+      <c r="E65" t="s">
+        <v>359</v>
+      </c>
+      <c r="F65" t="str">
         <f>groupList!C12</f>
         <v>https://discord.gg/W94UQfgw</v>
       </c>
-      <c r="G64" t="s">
-        <v>384</v>
-      </c>
-      <c r="H64" t="str">
-        <f>Table2[[#This Row],[firstName]]&amp;G64&amp;Table2[[#This Row],[lastName]]</f>
-        <v>Lola Iline Brown</v>
-      </c>
-    </row>
-    <row r="65" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A65" t="s">
-        <v>196</v>
-      </c>
-      <c r="B65" t="s">
-        <v>197</v>
-      </c>
-      <c r="C65" t="s">
-        <v>198</v>
-      </c>
-      <c r="D65" t="s">
-        <v>327</v>
-      </c>
-      <c r="E65" t="s">
-        <v>359</v>
-      </c>
-      <c r="F65" t="s">
-        <v>379</v>
-      </c>
       <c r="G65" t="s">
         <v>384</v>
       </c>
       <c r="H65" t="str">
         <f>Table2[[#This Row],[firstName]]&amp;G65&amp;Table2[[#This Row],[lastName]]</f>
-        <v>Tyler Rivers</v>
+        <v>Lola Iline Brown</v>
       </c>
     </row>
     <row r="66" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
-        <v>169</v>
+        <v>196</v>
       </c>
       <c r="B66" t="s">
-        <v>170</v>
+        <v>197</v>
       </c>
       <c r="C66" t="s">
-        <v>171</v>
+        <v>198</v>
       </c>
       <c r="D66" t="s">
-        <v>318</v>
+        <v>327</v>
       </c>
       <c r="E66" t="s">
         <v>359</v>
@@ -3966,21 +3978,21 @@
       </c>
       <c r="H66" t="str">
         <f>Table2[[#This Row],[firstName]]&amp;G66&amp;Table2[[#This Row],[lastName]]</f>
-        <v>Dayton Thor Muckerheide</v>
+        <v>Tyler Rivers</v>
       </c>
     </row>
     <row r="67" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
-        <v>73</v>
+        <v>169</v>
       </c>
       <c r="B67" t="s">
-        <v>74</v>
+        <v>170</v>
       </c>
       <c r="C67" t="s">
-        <v>75</v>
+        <v>171</v>
       </c>
       <c r="D67" t="s">
-        <v>286</v>
+        <v>318</v>
       </c>
       <c r="E67" t="s">
         <v>359</v>
@@ -3993,21 +4005,21 @@
       </c>
       <c r="H67" t="str">
         <f>Table2[[#This Row],[firstName]]&amp;G67&amp;Table2[[#This Row],[lastName]]</f>
-        <v>Will Richard Dowdle</v>
+        <v>Dayton Thor Muckerheide</v>
       </c>
     </row>
     <row r="68" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
-        <v>133</v>
+        <v>73</v>
       </c>
       <c r="B68" t="s">
-        <v>134</v>
+        <v>74</v>
       </c>
       <c r="C68" t="s">
-        <v>135</v>
+        <v>75</v>
       </c>
       <c r="D68" t="s">
-        <v>306</v>
+        <v>286</v>
       </c>
       <c r="E68" t="s">
         <v>359</v>
@@ -4020,101 +4032,101 @@
       </c>
       <c r="H68" t="str">
         <f>Table2[[#This Row],[firstName]]&amp;G68&amp;Table2[[#This Row],[lastName]]</f>
+        <v>Will Richard Dowdle</v>
+      </c>
+    </row>
+    <row r="69" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A69" t="s">
+        <v>133</v>
+      </c>
+      <c r="B69" t="s">
+        <v>134</v>
+      </c>
+      <c r="C69" t="s">
+        <v>135</v>
+      </c>
+      <c r="D69" t="s">
+        <v>306</v>
+      </c>
+      <c r="E69" t="s">
+        <v>359</v>
+      </c>
+      <c r="F69" t="s">
+        <v>379</v>
+      </c>
+      <c r="G69" t="s">
+        <v>384</v>
+      </c>
+      <c r="H69" t="str">
+        <f>Table2[[#This Row],[firstName]]&amp;G69&amp;Table2[[#This Row],[lastName]]</f>
         <v>Reaghan Marie Kryski</v>
       </c>
     </row>
-    <row r="69" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A69" s="5" t="s">
+    <row r="70" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A70" s="5" t="s">
         <v>392</v>
       </c>
-      <c r="B69" s="5" t="s">
+      <c r="B70" s="5" t="s">
         <v>86</v>
       </c>
-      <c r="C69" s="5" t="s">
+      <c r="C70" s="5" t="s">
         <v>394</v>
       </c>
-      <c r="D69" s="5" t="s">
+      <c r="D70" s="5" t="s">
         <v>393</v>
       </c>
-      <c r="E69" s="5" t="str">
-        <f>E68</f>
+      <c r="E70" s="5" t="str">
+        <f>E69</f>
         <v>aalto-studio</v>
       </c>
-      <c r="F69" s="5"/>
-      <c r="G69" s="5"/>
-      <c r="H69" s="5" t="str">
-        <f>Table2[[#This Row],[firstName]]&amp;G61&amp;Table2[[#This Row],[lastName]]</f>
+      <c r="F70" s="5"/>
+      <c r="G70" s="5"/>
+      <c r="H70" s="5" t="str">
+        <f>Table2[[#This Row],[firstName]]&amp;G62&amp;Table2[[#This Row],[lastName]]</f>
         <v>Jack Girouard Grant</v>
       </c>
-      <c r="I69" s="5"/>
-    </row>
-    <row r="70" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A70" t="s">
+      <c r="I70" s="5"/>
+    </row>
+    <row r="71" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A71" t="s">
         <v>181</v>
       </c>
-      <c r="B70" t="s">
+      <c r="B71" t="s">
         <v>182</v>
       </c>
-      <c r="C70" t="s">
+      <c r="C71" t="s">
         <v>183</v>
       </c>
-      <c r="D70" t="s">
+      <c r="D71" t="s">
         <v>322</v>
       </c>
-      <c r="E70" t="s">
+      <c r="E71" t="s">
         <v>360</v>
       </c>
-      <c r="F70" t="str">
+      <c r="F71" t="str">
         <f>groupList!C13</f>
         <v>https://discord.gg/cUNbrNJu</v>
       </c>
-      <c r="G70" t="s">
-        <v>384</v>
-      </c>
-      <c r="H70" t="str">
-        <f>Table2[[#This Row],[firstName]]&amp;G70&amp;Table2[[#This Row],[lastName]]</f>
-        <v>Sruthi Paluri</v>
-      </c>
-    </row>
-    <row r="71" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A71" t="s">
-        <v>160</v>
-      </c>
-      <c r="B71" t="s">
-        <v>161</v>
-      </c>
-      <c r="C71" t="s">
-        <v>162</v>
-      </c>
-      <c r="D71" t="s">
-        <v>315</v>
-      </c>
-      <c r="E71" t="s">
-        <v>360</v>
-      </c>
-      <c r="F71" t="s">
-        <v>381</v>
-      </c>
       <c r="G71" t="s">
         <v>384</v>
       </c>
       <c r="H71" t="str">
         <f>Table2[[#This Row],[firstName]]&amp;G71&amp;Table2[[#This Row],[lastName]]</f>
-        <v>Stephen Christian Merrill III</v>
+        <v>Sruthi Paluri</v>
       </c>
     </row>
     <row r="72" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
-        <v>52</v>
+        <v>160</v>
       </c>
       <c r="B72" t="s">
-        <v>53</v>
+        <v>161</v>
       </c>
       <c r="C72" t="s">
-        <v>54</v>
+        <v>162</v>
       </c>
       <c r="D72" t="s">
-        <v>279</v>
+        <v>315</v>
       </c>
       <c r="E72" t="s">
         <v>360</v>
@@ -4127,23 +4139,21 @@
       </c>
       <c r="H72" t="str">
         <f>Table2[[#This Row],[firstName]]&amp;G72&amp;Table2[[#This Row],[lastName]]</f>
-        <v>Callie Rachelle Davidson</v>
-      </c>
-      <c r="K72" s="4"/>
-      <c r="L72" s="1"/>
+        <v>Stephen Christian Merrill III</v>
+      </c>
     </row>
     <row r="73" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
-        <v>256</v>
+        <v>52</v>
       </c>
       <c r="B73" t="s">
-        <v>257</v>
+        <v>53</v>
       </c>
       <c r="C73" t="s">
-        <v>258</v>
+        <v>54</v>
       </c>
       <c r="D73" t="s">
-        <v>347</v>
+        <v>279</v>
       </c>
       <c r="E73" t="s">
         <v>360</v>
@@ -4156,21 +4166,23 @@
       </c>
       <c r="H73" t="str">
         <f>Table2[[#This Row],[firstName]]&amp;G73&amp;Table2[[#This Row],[lastName]]</f>
-        <v>Evan James Zido</v>
-      </c>
+        <v>Callie Rachelle Davidson</v>
+      </c>
+      <c r="K73" s="4"/>
+      <c r="L73" s="1"/>
     </row>
     <row r="74" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
-        <v>148</v>
+        <v>256</v>
       </c>
       <c r="B74" t="s">
-        <v>149</v>
+        <v>257</v>
       </c>
       <c r="C74" t="s">
-        <v>150</v>
+        <v>258</v>
       </c>
       <c r="D74" t="s">
-        <v>311</v>
+        <v>347</v>
       </c>
       <c r="E74" t="s">
         <v>360</v>
@@ -4183,21 +4195,21 @@
       </c>
       <c r="H74" t="str">
         <f>Table2[[#This Row],[firstName]]&amp;G74&amp;Table2[[#This Row],[lastName]]</f>
-        <v>Cate Yu Maren</v>
+        <v>Evan James Zido</v>
       </c>
     </row>
     <row r="75" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
-        <v>136</v>
+        <v>148</v>
       </c>
       <c r="B75" t="s">
-        <v>137</v>
+        <v>149</v>
       </c>
       <c r="C75" t="s">
-        <v>138</v>
+        <v>150</v>
       </c>
       <c r="D75" t="s">
-        <v>307</v>
+        <v>311</v>
       </c>
       <c r="E75" t="s">
         <v>360</v>
@@ -4210,100 +4222,100 @@
       </c>
       <c r="H75" t="str">
         <f>Table2[[#This Row],[firstName]]&amp;G75&amp;Table2[[#This Row],[lastName]]</f>
+        <v>Cate Yu Maren</v>
+      </c>
+    </row>
+    <row r="76" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A76" t="s">
+        <v>136</v>
+      </c>
+      <c r="B76" t="s">
+        <v>137</v>
+      </c>
+      <c r="C76" t="s">
+        <v>138</v>
+      </c>
+      <c r="D76" t="s">
+        <v>307</v>
+      </c>
+      <c r="E76" t="s">
+        <v>360</v>
+      </c>
+      <c r="F76" t="s">
+        <v>381</v>
+      </c>
+      <c r="G76" t="s">
+        <v>384</v>
+      </c>
+      <c r="H76" t="str">
+        <f>Table2[[#This Row],[firstName]]&amp;G76&amp;Table2[[#This Row],[lastName]]</f>
         <v>Piper Dawn Leis</v>
       </c>
     </row>
-    <row r="76" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A76" s="5" t="s">
+    <row r="77" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A77" s="5" t="s">
         <v>388</v>
       </c>
-      <c r="B76" s="5" t="s">
+      <c r="B77" s="5" t="s">
         <v>389</v>
       </c>
-      <c r="C76" s="5" t="s">
+      <c r="C77" s="5" t="s">
         <v>390</v>
       </c>
-      <c r="D76" s="5" t="s">
+      <c r="D77" s="5" t="s">
         <v>391</v>
       </c>
-      <c r="E76" s="5" t="s">
+      <c r="E77" s="5" t="s">
         <v>360</v>
       </c>
-      <c r="F76" s="5"/>
-      <c r="G76" s="5"/>
-      <c r="H76" s="5" t="str">
-        <f>Table2[[#This Row],[firstName]]&amp;G61&amp;Table2[[#This Row],[lastName]]</f>
+      <c r="F77" s="5"/>
+      <c r="G77" s="5"/>
+      <c r="H77" s="5" t="str">
+        <f>Table2[[#This Row],[firstName]]&amp;G62&amp;Table2[[#This Row],[lastName]]</f>
         <v>Gerald Thomas Kuhel</v>
       </c>
-      <c r="I76" s="5"/>
-    </row>
-    <row r="77" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A77" t="s">
+      <c r="I77" s="5"/>
+    </row>
+    <row r="78" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A78" t="s">
         <v>49</v>
       </c>
-      <c r="B77" t="s">
+      <c r="B78" t="s">
         <v>50</v>
       </c>
-      <c r="C77" t="s">
+      <c r="C78" t="s">
         <v>51</v>
       </c>
-      <c r="D77" t="s">
+      <c r="D78" t="s">
         <v>278</v>
       </c>
-      <c r="E77" t="s">
+      <c r="E78" t="s">
         <v>361</v>
       </c>
-      <c r="F77" t="str">
+      <c r="F78" t="str">
         <f>groupList!C14</f>
         <v>https://discord.gg/D3YRdGeQ</v>
       </c>
-      <c r="G77" t="s">
-        <v>384</v>
-      </c>
-      <c r="H77" t="str">
-        <f>Table2[[#This Row],[firstName]]&amp;G77&amp;Table2[[#This Row],[lastName]]</f>
-        <v>Gage Alexander William Crenshaw</v>
-      </c>
-    </row>
-    <row r="78" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A78" t="s">
-        <v>235</v>
-      </c>
-      <c r="B78" t="s">
-        <v>236</v>
-      </c>
-      <c r="C78" t="s">
-        <v>237</v>
-      </c>
-      <c r="D78" t="s">
-        <v>340</v>
-      </c>
-      <c r="E78" t="s">
-        <v>361</v>
-      </c>
-      <c r="F78" t="s">
-        <v>382</v>
-      </c>
       <c r="G78" t="s">
         <v>384</v>
       </c>
       <c r="H78" t="str">
         <f>Table2[[#This Row],[firstName]]&amp;G78&amp;Table2[[#This Row],[lastName]]</f>
-        <v>Zaida Nicole Velasco Merino V</v>
+        <v>Gage Alexander William Crenshaw</v>
       </c>
     </row>
     <row r="79" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
-        <v>10</v>
+        <v>235</v>
       </c>
       <c r="B79" t="s">
-        <v>11</v>
+        <v>236</v>
       </c>
       <c r="C79" t="s">
-        <v>12</v>
+        <v>237</v>
       </c>
       <c r="D79" t="s">
-        <v>265</v>
+        <v>340</v>
       </c>
       <c r="E79" t="s">
         <v>361</v>
@@ -4316,21 +4328,21 @@
       </c>
       <c r="H79" t="str">
         <f>Table2[[#This Row],[firstName]]&amp;G79&amp;Table2[[#This Row],[lastName]]</f>
-        <v>Chase B Bailey</v>
+        <v>Zaida Nicole Velasco Merino V</v>
       </c>
     </row>
     <row r="80" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
-        <v>31</v>
+        <v>10</v>
       </c>
       <c r="B80" t="s">
-        <v>32</v>
+        <v>11</v>
       </c>
       <c r="C80" t="s">
-        <v>33</v>
+        <v>12</v>
       </c>
       <c r="D80" t="s">
-        <v>272</v>
+        <v>265</v>
       </c>
       <c r="E80" t="s">
         <v>361</v>
@@ -4343,21 +4355,21 @@
       </c>
       <c r="H80" t="str">
         <f>Table2[[#This Row],[firstName]]&amp;G80&amp;Table2[[#This Row],[lastName]]</f>
-        <v>Connor Coco-Gray</v>
+        <v>Chase B Bailey</v>
       </c>
     </row>
     <row r="81" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
-        <v>58</v>
+        <v>31</v>
       </c>
       <c r="B81" t="s">
-        <v>59</v>
+        <v>32</v>
       </c>
       <c r="C81" t="s">
-        <v>60</v>
+        <v>33</v>
       </c>
       <c r="D81" t="s">
-        <v>281</v>
+        <v>272</v>
       </c>
       <c r="E81" t="s">
         <v>361</v>
@@ -4370,21 +4382,21 @@
       </c>
       <c r="H81" t="str">
         <f>Table2[[#This Row],[firstName]]&amp;G81&amp;Table2[[#This Row],[lastName]]</f>
-        <v>Isabella Rhea Dew</v>
+        <v>Connor Coco-Gray</v>
       </c>
     </row>
     <row r="82" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
-        <v>112</v>
+        <v>58</v>
       </c>
       <c r="B82" t="s">
-        <v>113</v>
+        <v>59</v>
       </c>
       <c r="C82" t="s">
-        <v>114</v>
+        <v>60</v>
       </c>
       <c r="D82" t="s">
-        <v>299</v>
+        <v>281</v>
       </c>
       <c r="E82" t="s">
         <v>361</v>
@@ -4397,100 +4409,100 @@
       </c>
       <c r="H82" t="str">
         <f>Table2[[#This Row],[firstName]]&amp;G82&amp;Table2[[#This Row],[lastName]]</f>
+        <v>Isabella Rhea Dew</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A83" t="s">
+        <v>112</v>
+      </c>
+      <c r="B83" t="s">
+        <v>113</v>
+      </c>
+      <c r="C83" t="s">
+        <v>114</v>
+      </c>
+      <c r="D83" t="s">
+        <v>299</v>
+      </c>
+      <c r="E83" t="s">
+        <v>361</v>
+      </c>
+      <c r="F83" t="s">
+        <v>382</v>
+      </c>
+      <c r="G83" t="s">
+        <v>384</v>
+      </c>
+      <c r="H83" t="str">
+        <f>Table2[[#This Row],[firstName]]&amp;G83&amp;Table2[[#This Row],[lastName]]</f>
         <v>Joe John Hollback</v>
       </c>
     </row>
-    <row r="83" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A83" s="5" t="s">
+    <row r="84" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A84" s="5" t="s">
         <v>385</v>
       </c>
-      <c r="B83" s="5" t="s">
+      <c r="B84" s="5" t="s">
         <v>179</v>
       </c>
-      <c r="C83" s="5" t="s">
+      <c r="C84" s="5" t="s">
         <v>386</v>
       </c>
-      <c r="D83" s="5" t="s">
+      <c r="D84" s="5" t="s">
         <v>387</v>
       </c>
-      <c r="E83" s="5" t="s">
+      <c r="E84" s="5" t="s">
         <v>361</v>
       </c>
-      <c r="F83" s="5"/>
-      <c r="G83" s="5"/>
-      <c r="H83" s="5" t="str">
-        <f>Table2[[#This Row],[firstName]]&amp;G61&amp;Table2[[#This Row],[lastName]]</f>
+      <c r="F84" s="5"/>
+      <c r="G84" s="5"/>
+      <c r="H84" s="5" t="str">
+        <f>Table2[[#This Row],[firstName]]&amp;G62&amp;Table2[[#This Row],[lastName]]</f>
         <v>Autumn Renee Myers</v>
       </c>
-      <c r="I83" s="5"/>
-    </row>
-    <row r="84" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A84" t="s">
+      <c r="I84" s="5"/>
+    </row>
+    <row r="85" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A85" t="s">
         <v>94</v>
       </c>
-      <c r="B84" t="s">
+      <c r="B85" t="s">
         <v>95</v>
       </c>
-      <c r="C84" t="s">
+      <c r="C85" t="s">
         <v>96</v>
       </c>
-      <c r="D84" t="s">
+      <c r="D85" t="s">
         <v>293</v>
       </c>
-      <c r="E84" t="s">
+      <c r="E85" t="s">
         <v>362</v>
       </c>
-      <c r="F84" t="str">
+      <c r="F85" t="str">
         <f>groupList!C15</f>
         <v>https://discord.gg/eTbVRC9U</v>
       </c>
-      <c r="G84" t="s">
-        <v>384</v>
-      </c>
-      <c r="H84" t="str">
-        <f>Table2[[#This Row],[firstName]]&amp;G84&amp;Table2[[#This Row],[lastName]]</f>
-        <v>Gracie N Haddad</v>
-      </c>
-    </row>
-    <row r="85" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A85" t="s">
-        <v>25</v>
-      </c>
-      <c r="B85" t="s">
-        <v>26</v>
-      </c>
-      <c r="C85" t="s">
-        <v>27</v>
-      </c>
-      <c r="D85" t="s">
-        <v>270</v>
-      </c>
-      <c r="E85" t="s">
-        <v>362</v>
-      </c>
-      <c r="F85" t="s">
-        <v>383</v>
-      </c>
       <c r="G85" t="s">
         <v>384</v>
       </c>
       <c r="H85" t="str">
         <f>Table2[[#This Row],[firstName]]&amp;G85&amp;Table2[[#This Row],[lastName]]</f>
-        <v>Lucas Timothy Brummitt</v>
+        <v>Gracie N Haddad</v>
       </c>
     </row>
     <row r="86" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
-        <v>85</v>
+        <v>25</v>
       </c>
       <c r="B86" t="s">
-        <v>86</v>
+        <v>26</v>
       </c>
       <c r="C86" t="s">
-        <v>87</v>
+        <v>27</v>
       </c>
       <c r="D86" t="s">
-        <v>290</v>
+        <v>270</v>
       </c>
       <c r="E86" t="s">
         <v>362</v>
@@ -4503,21 +4515,21 @@
       </c>
       <c r="H86" t="str">
         <f>Table2[[#This Row],[firstName]]&amp;G86&amp;Table2[[#This Row],[lastName]]</f>
-        <v>Aries Nicole Grant</v>
+        <v>Lucas Timothy Brummitt</v>
       </c>
     </row>
     <row r="87" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
-        <v>70</v>
+        <v>85</v>
       </c>
       <c r="B87" t="s">
-        <v>71</v>
+        <v>86</v>
       </c>
       <c r="C87" t="s">
-        <v>72</v>
+        <v>87</v>
       </c>
       <c r="D87" t="s">
-        <v>285</v>
+        <v>290</v>
       </c>
       <c r="E87" t="s">
         <v>362</v>
@@ -4530,21 +4542,21 @@
       </c>
       <c r="H87" t="str">
         <f>Table2[[#This Row],[firstName]]&amp;G87&amp;Table2[[#This Row],[lastName]]</f>
-        <v>Saanjh Dodwani</v>
+        <v>Aries Nicole Grant</v>
       </c>
     </row>
     <row r="88" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
-        <v>244</v>
+        <v>70</v>
       </c>
       <c r="B88" t="s">
-        <v>245</v>
+        <v>71</v>
       </c>
       <c r="C88" t="s">
-        <v>246</v>
+        <v>72</v>
       </c>
       <c r="D88" t="s">
-        <v>343</v>
+        <v>285</v>
       </c>
       <c r="E88" t="s">
         <v>362</v>
@@ -4557,21 +4569,21 @@
       </c>
       <c r="H88" t="str">
         <f>Table2[[#This Row],[firstName]]&amp;G88&amp;Table2[[#This Row],[lastName]]</f>
-        <v>George Kinsey Webb</v>
+        <v>Saanjh Dodwani</v>
       </c>
     </row>
     <row r="89" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
-        <v>4</v>
+        <v>244</v>
       </c>
       <c r="B89" t="s">
-        <v>5</v>
+        <v>245</v>
       </c>
       <c r="C89" t="s">
-        <v>6</v>
+        <v>246</v>
       </c>
       <c r="D89" t="s">
-        <v>263</v>
+        <v>343</v>
       </c>
       <c r="E89" t="s">
         <v>362</v>
@@ -4584,21 +4596,21 @@
       </c>
       <c r="H89" t="str">
         <f>Table2[[#This Row],[firstName]]&amp;G89&amp;Table2[[#This Row],[lastName]]</f>
-        <v>Avery Michelle Allen</v>
+        <v>George Kinsey Webb</v>
       </c>
     </row>
     <row r="90" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
-        <v>130</v>
+        <v>4</v>
       </c>
       <c r="B90" t="s">
-        <v>131</v>
+        <v>5</v>
       </c>
       <c r="C90" t="s">
-        <v>132</v>
+        <v>6</v>
       </c>
       <c r="D90" t="s">
-        <v>305</v>
+        <v>263</v>
       </c>
       <c r="E90" t="s">
         <v>362</v>
@@ -4611,29 +4623,56 @@
       </c>
       <c r="H90" t="str">
         <f>Table2[[#This Row],[firstName]]&amp;G90&amp;Table2[[#This Row],[lastName]]</f>
+        <v>Avery Michelle Allen</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A91" t="s">
+        <v>130</v>
+      </c>
+      <c r="B91" t="s">
+        <v>131</v>
+      </c>
+      <c r="C91" t="s">
+        <v>132</v>
+      </c>
+      <c r="D91" t="s">
+        <v>305</v>
+      </c>
+      <c r="E91" t="s">
+        <v>362</v>
+      </c>
+      <c r="F91" t="s">
+        <v>383</v>
+      </c>
+      <c r="G91" t="s">
+        <v>384</v>
+      </c>
+      <c r="H91" t="str">
+        <f>Table2[[#This Row],[firstName]]&amp;G91&amp;Table2[[#This Row],[lastName]]</f>
         <v>Kayleigh Nichole Keyes</v>
       </c>
     </row>
-    <row r="94" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A94" s="3" t="s">
+    <row r="95" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A95" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B94" s="3" t="s">
+      <c r="B95" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C94" s="3" t="s">
+      <c r="C95" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="D94" s="3" t="s">
+      <c r="D95" s="3" t="s">
         <v>264</v>
       </c>
-      <c r="E94" s="3" t="s">
+      <c r="E95" s="3" t="s">
         <v>361</v>
       </c>
-      <c r="F94" s="3" t="s">
+      <c r="F95" s="3" t="s">
         <v>382</v>
       </c>
-      <c r="G94" t="s">
+      <c r="G95" t="s">
         <v>384</v>
       </c>
     </row>

--- a/ae1013/documents/emailList.xlsx
+++ b/ae1013/documents/emailList.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10824"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10830"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ericinglert/Documents/GitHub/einglert.github.io/ae1013/documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85DA63B9-800B-4B48-9F57-7661A553AFF0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{602EBC81-01AD-CE48-84D8-01E7E69E1375}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="5180" yWindow="1800" windowWidth="28040" windowHeight="17440" xr2:uid="{D48C7A5C-A6A7-0D4D-AE7C-3AC7CDC30510}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="649" uniqueCount="403">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="653" uniqueCount="403">
   <si>
     <t>UCID</t>
   </si>
@@ -1834,10 +1834,10 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{0F4C48B0-E636-904E-8172-DBF75C8AC5B6}" name="Table2" displayName="Table2" ref="A1:F91" totalsRowShown="0">
-  <autoFilter ref="A1:F91" xr:uid="{0F4C48B0-E636-904E-8172-DBF75C8AC5B6}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F91">
-    <sortCondition ref="A1:A91"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{0F4C48B0-E636-904E-8172-DBF75C8AC5B6}" name="Table2" displayName="Table2" ref="A1:F92" totalsRowShown="0">
+  <autoFilter ref="A1:F92" xr:uid="{0F4C48B0-E636-904E-8172-DBF75C8AC5B6}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F92">
+    <sortCondition ref="A1:A92"/>
   </sortState>
   <tableColumns count="6">
     <tableColumn id="1" xr3:uid="{0693825F-4066-864B-AD5D-0CFFA354B829}" name="UCID"/>
@@ -2182,10 +2182,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EFD509CC-6CA9-3743-9F13-EA53CF82DF7D}">
-  <dimension ref="A1:L95"/>
+  <dimension ref="A1:M96"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A44" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="A56" sqref="A56:F56"/>
+    <sheetView tabSelected="1" topLeftCell="A43" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="G50" sqref="G50:I50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3496,7 +3496,7 @@
         <v>Elianna Jewel Colclasure</v>
       </c>
     </row>
-    <row r="49" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>232</v>
       </c>
@@ -3523,45 +3523,43 @@
         <v>Alex William Tompkins</v>
       </c>
     </row>
-    <row r="50" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A50" t="s">
+    <row r="50" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A50" s="5" t="s">
+        <v>160</v>
+      </c>
+      <c r="B50" s="5" t="s">
+        <v>161</v>
+      </c>
+      <c r="C50" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="D50" s="5" t="s">
+        <v>315</v>
+      </c>
+      <c r="E50" s="5" t="str">
+        <f>E49</f>
+        <v>corbu-studio</v>
+      </c>
+      <c r="F50" s="7"/>
+      <c r="G50" s="5"/>
+      <c r="H50" s="5" t="str">
+        <f>Table2[[#This Row],[firstName]]&amp;G49&amp;Table2[[#This Row],[lastName]]</f>
+        <v>Stephen Christian Merrill III</v>
+      </c>
+      <c r="I50" s="5"/>
+    </row>
+    <row r="51" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A51" t="s">
         <v>199</v>
       </c>
-      <c r="B50" t="s">
+      <c r="B51" t="s">
         <v>200</v>
       </c>
-      <c r="C50" t="s">
+      <c r="C51" t="s">
         <v>201</v>
       </c>
-      <c r="D50" t="s">
+      <c r="D51" t="s">
         <v>328</v>
-      </c>
-      <c r="E50" t="s">
-        <v>357</v>
-      </c>
-      <c r="F50" t="s">
-        <v>377</v>
-      </c>
-      <c r="G50" t="s">
-        <v>384</v>
-      </c>
-      <c r="H50" t="str">
-        <f>Table2[[#This Row],[firstName]]&amp;G50&amp;Table2[[#This Row],[lastName]]</f>
-        <v>Stephen James Sagan</v>
-      </c>
-    </row>
-    <row r="51" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A51" t="s">
-        <v>217</v>
-      </c>
-      <c r="B51" t="s">
-        <v>218</v>
-      </c>
-      <c r="C51" t="s">
-        <v>219</v>
-      </c>
-      <c r="D51" t="s">
-        <v>334</v>
       </c>
       <c r="E51" t="s">
         <v>357</v>
@@ -3574,21 +3572,21 @@
       </c>
       <c r="H51" t="str">
         <f>Table2[[#This Row],[firstName]]&amp;G51&amp;Table2[[#This Row],[lastName]]</f>
-        <v>Kaelyn Raine Schulenburg</v>
-      </c>
-    </row>
-    <row r="52" spans="1:12" x14ac:dyDescent="0.2">
+        <v>Stephen James Sagan</v>
+      </c>
+    </row>
+    <row r="52" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>166</v>
+        <v>217</v>
       </c>
       <c r="B52" t="s">
-        <v>167</v>
+        <v>218</v>
       </c>
       <c r="C52" t="s">
-        <v>168</v>
+        <v>219</v>
       </c>
       <c r="D52" t="s">
-        <v>317</v>
+        <v>334</v>
       </c>
       <c r="E52" t="s">
         <v>357</v>
@@ -3601,76 +3599,76 @@
       </c>
       <c r="H52" t="str">
         <f>Table2[[#This Row],[firstName]]&amp;G52&amp;Table2[[#This Row],[lastName]]</f>
-        <v>Vandan Jayesh Mistry</v>
-      </c>
-    </row>
-    <row r="53" spans="1:12" x14ac:dyDescent="0.2">
+        <v>Kaelyn Raine Schulenburg</v>
+      </c>
+    </row>
+    <row r="53" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>100</v>
+        <v>166</v>
       </c>
       <c r="B53" t="s">
-        <v>101</v>
+        <v>167</v>
       </c>
       <c r="C53" t="s">
-        <v>102</v>
+        <v>168</v>
       </c>
       <c r="D53" t="s">
-        <v>295</v>
+        <v>317</v>
       </c>
       <c r="E53" t="s">
         <v>357</v>
       </c>
-      <c r="F53" t="str">
+      <c r="F53" t="s">
+        <v>377</v>
+      </c>
+      <c r="G53" t="s">
+        <v>384</v>
+      </c>
+      <c r="H53" t="str">
+        <f>Table2[[#This Row],[firstName]]&amp;G53&amp;Table2[[#This Row],[lastName]]</f>
+        <v>Vandan Jayesh Mistry</v>
+      </c>
+    </row>
+    <row r="54" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A54" t="s">
+        <v>100</v>
+      </c>
+      <c r="B54" t="s">
+        <v>101</v>
+      </c>
+      <c r="C54" t="s">
+        <v>102</v>
+      </c>
+      <c r="D54" t="s">
+        <v>295</v>
+      </c>
+      <c r="E54" t="s">
+        <v>357</v>
+      </c>
+      <c r="F54" t="str">
         <f>groupList!C10</f>
         <v>https://discord.gg/jxKfDp3P</v>
       </c>
-      <c r="G53" t="s">
-        <v>384</v>
-      </c>
-      <c r="H53" t="str">
-        <f>Table2[[#This Row],[firstName]]&amp;G53&amp;Table2[[#This Row],[lastName]]</f>
-        <v>Kya Kya Harris</v>
-      </c>
-    </row>
-    <row r="54" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A54" t="s">
-        <v>118</v>
-      </c>
-      <c r="B54" t="s">
-        <v>119</v>
-      </c>
-      <c r="C54" t="s">
-        <v>120</v>
-      </c>
-      <c r="D54" t="s">
-        <v>301</v>
-      </c>
-      <c r="E54" t="s">
-        <v>357</v>
-      </c>
-      <c r="F54" t="s">
-        <v>377</v>
-      </c>
       <c r="G54" t="s">
         <v>384</v>
       </c>
       <c r="H54" t="str">
         <f>Table2[[#This Row],[firstName]]&amp;G54&amp;Table2[[#This Row],[lastName]]</f>
-        <v>Sydney Faith Huffman</v>
-      </c>
-    </row>
-    <row r="55" spans="1:12" x14ac:dyDescent="0.2">
+        <v>Kya Kya Harris</v>
+      </c>
+    </row>
+    <row r="55" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
-        <v>250</v>
+        <v>118</v>
       </c>
       <c r="B55" t="s">
-        <v>251</v>
+        <v>119</v>
       </c>
       <c r="C55" t="s">
-        <v>252</v>
+        <v>120</v>
       </c>
       <c r="D55" t="s">
-        <v>345</v>
+        <v>301</v>
       </c>
       <c r="E55" t="s">
         <v>357</v>
@@ -3683,99 +3681,104 @@
       </c>
       <c r="H55" t="str">
         <f>Table2[[#This Row],[firstName]]&amp;G55&amp;Table2[[#This Row],[lastName]]</f>
+        <v>Sydney Faith Huffman</v>
+      </c>
+    </row>
+    <row r="56" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A56" t="s">
+        <v>250</v>
+      </c>
+      <c r="B56" t="s">
+        <v>251</v>
+      </c>
+      <c r="C56" t="s">
+        <v>252</v>
+      </c>
+      <c r="D56" t="s">
+        <v>345</v>
+      </c>
+      <c r="E56" t="s">
+        <v>357</v>
+      </c>
+      <c r="F56" t="s">
+        <v>377</v>
+      </c>
+      <c r="G56" t="s">
+        <v>384</v>
+      </c>
+      <c r="H56" t="str">
+        <f>Table2[[#This Row],[firstName]]&amp;G56&amp;Table2[[#This Row],[lastName]]</f>
         <v>Macy A Williams</v>
       </c>
-    </row>
-    <row r="56" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A56" s="5" t="s">
+      <c r="K56" s="4"/>
+      <c r="L56" s="4"/>
+      <c r="M56" s="6"/>
+    </row>
+    <row r="57" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A57" s="5" t="s">
         <v>399</v>
       </c>
-      <c r="B56" s="5" t="s">
+      <c r="B57" s="5" t="s">
         <v>401</v>
       </c>
-      <c r="C56" s="5" t="s">
+      <c r="C57" s="5" t="s">
         <v>402</v>
       </c>
-      <c r="D56" s="5" t="s">
+      <c r="D57" s="5" t="s">
         <v>400</v>
       </c>
-      <c r="E56" s="5" t="str">
-        <f>E55</f>
+      <c r="E57" s="5" t="str">
+        <f>E56</f>
         <v>gropius-studio</v>
       </c>
-      <c r="F56" s="7"/>
-      <c r="H56" t="str">
+      <c r="F57" s="5"/>
+      <c r="G57" s="5"/>
+      <c r="H57" s="5" t="str">
         <f>Table2[[#This Row],[firstName]]&amp;G26&amp;Table2[[#This Row],[lastName]]</f>
         <v>Jostin Rosales-Cuevas</v>
       </c>
-    </row>
-    <row r="57" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A57" t="s">
+      <c r="I57" s="5"/>
+    </row>
+    <row r="58" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A58" t="s">
         <v>193</v>
       </c>
-      <c r="B57" t="s">
+      <c r="B58" t="s">
         <v>194</v>
       </c>
-      <c r="C57" t="s">
+      <c r="C58" t="s">
         <v>195</v>
       </c>
-      <c r="D57" t="s">
+      <c r="D58" t="s">
         <v>326</v>
       </c>
-      <c r="E57" t="s">
+      <c r="E58" t="s">
         <v>358</v>
       </c>
-      <c r="F57" t="str">
+      <c r="F58" t="str">
         <f>groupList!C11</f>
         <v>https://discord.gg/D5C6XMny</v>
       </c>
-      <c r="G57" t="s">
-        <v>384</v>
-      </c>
-      <c r="H57" t="str">
-        <f>Table2[[#This Row],[firstName]]&amp;G57&amp;Table2[[#This Row],[lastName]]</f>
-        <v>Yuridia Rebollar Pedraza</v>
-      </c>
-    </row>
-    <row r="58" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A58" t="s">
-        <v>157</v>
-      </c>
-      <c r="B58" t="s">
-        <v>158</v>
-      </c>
-      <c r="C58" t="s">
-        <v>159</v>
-      </c>
-      <c r="D58" t="s">
-        <v>314</v>
-      </c>
-      <c r="E58" t="s">
-        <v>358</v>
-      </c>
-      <c r="F58" t="s">
-        <v>378</v>
-      </c>
       <c r="G58" t="s">
         <v>384</v>
       </c>
       <c r="H58" t="str">
         <f>Table2[[#This Row],[firstName]]&amp;G58&amp;Table2[[#This Row],[lastName]]</f>
-        <v>Brandt Joseph Menke</v>
-      </c>
-    </row>
-    <row r="59" spans="1:12" x14ac:dyDescent="0.2">
+        <v>Yuridia Rebollar Pedraza</v>
+      </c>
+    </row>
+    <row r="59" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
-        <v>247</v>
+        <v>157</v>
       </c>
       <c r="B59" t="s">
-        <v>248</v>
+        <v>158</v>
       </c>
       <c r="C59" t="s">
-        <v>249</v>
+        <v>159</v>
       </c>
       <c r="D59" t="s">
-        <v>344</v>
+        <v>314</v>
       </c>
       <c r="E59" t="s">
         <v>358</v>
@@ -3788,21 +3791,21 @@
       </c>
       <c r="H59" t="str">
         <f>Table2[[#This Row],[firstName]]&amp;G59&amp;Table2[[#This Row],[lastName]]</f>
-        <v>Kylie Renee Will</v>
-      </c>
-    </row>
-    <row r="60" spans="1:12" x14ac:dyDescent="0.2">
+        <v>Brandt Joseph Menke</v>
+      </c>
+    </row>
+    <row r="60" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
-        <v>220</v>
+        <v>247</v>
       </c>
       <c r="B60" t="s">
-        <v>221</v>
+        <v>248</v>
       </c>
       <c r="C60" t="s">
-        <v>222</v>
+        <v>249</v>
       </c>
       <c r="D60" t="s">
-        <v>335</v>
+        <v>344</v>
       </c>
       <c r="E60" t="s">
         <v>358</v>
@@ -3815,21 +3818,21 @@
       </c>
       <c r="H60" t="str">
         <f>Table2[[#This Row],[firstName]]&amp;G60&amp;Table2[[#This Row],[lastName]]</f>
-        <v>Henrietta Maxine Schultz</v>
-      </c>
-    </row>
-    <row r="61" spans="1:12" x14ac:dyDescent="0.2">
+        <v>Kylie Renee Will</v>
+      </c>
+    </row>
+    <row r="61" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
-        <v>190</v>
+        <v>220</v>
       </c>
       <c r="B61" t="s">
-        <v>191</v>
+        <v>221</v>
       </c>
       <c r="C61" t="s">
-        <v>192</v>
+        <v>222</v>
       </c>
       <c r="D61" t="s">
-        <v>325</v>
+        <v>335</v>
       </c>
       <c r="E61" t="s">
         <v>358</v>
@@ -3842,21 +3845,21 @@
       </c>
       <c r="H61" t="str">
         <f>Table2[[#This Row],[firstName]]&amp;G61&amp;Table2[[#This Row],[lastName]]</f>
-        <v>Ilya Pavlovich Prytup</v>
-      </c>
-    </row>
-    <row r="62" spans="1:12" x14ac:dyDescent="0.2">
+        <v>Henrietta Maxine Schultz</v>
+      </c>
+    </row>
+    <row r="62" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
-        <v>226</v>
+        <v>190</v>
       </c>
       <c r="B62" t="s">
-        <v>227</v>
+        <v>191</v>
       </c>
       <c r="C62" t="s">
-        <v>228</v>
+        <v>192</v>
       </c>
       <c r="D62" t="s">
-        <v>337</v>
+        <v>325</v>
       </c>
       <c r="E62" t="s">
         <v>358</v>
@@ -3869,130 +3872,129 @@
       </c>
       <c r="H62" t="str">
         <f>Table2[[#This Row],[firstName]]&amp;G62&amp;Table2[[#This Row],[lastName]]</f>
+        <v>Ilya Pavlovich Prytup</v>
+      </c>
+    </row>
+    <row r="63" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A63" t="s">
+        <v>226</v>
+      </c>
+      <c r="B63" t="s">
+        <v>227</v>
+      </c>
+      <c r="C63" t="s">
+        <v>228</v>
+      </c>
+      <c r="D63" t="s">
+        <v>337</v>
+      </c>
+      <c r="E63" t="s">
+        <v>358</v>
+      </c>
+      <c r="F63" t="s">
+        <v>378</v>
+      </c>
+      <c r="G63" t="s">
+        <v>384</v>
+      </c>
+      <c r="H63" t="str">
+        <f>Table2[[#This Row],[firstName]]&amp;G63&amp;Table2[[#This Row],[lastName]]</f>
         <v>Austin M Stout</v>
       </c>
-      <c r="K62" s="4"/>
-      <c r="L62" s="6"/>
-    </row>
-    <row r="63" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A63" s="5" t="s">
+      <c r="K63" s="4"/>
+    </row>
+    <row r="64" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A64" s="5" t="s">
         <v>395</v>
       </c>
-      <c r="B63" s="5" t="s">
+      <c r="B64" s="5" t="s">
         <v>396</v>
       </c>
-      <c r="C63" s="5" t="s">
+      <c r="C64" s="5" t="s">
         <v>397</v>
       </c>
-      <c r="D63" s="5" t="s">
+      <c r="D64" s="5" t="s">
         <v>398</v>
       </c>
-      <c r="E63" s="5" t="str">
-        <f>E62</f>
+      <c r="E64" s="5" t="str">
+        <f>E63</f>
         <v>saarinen-studio</v>
       </c>
-      <c r="F63" s="5"/>
-      <c r="G63" s="5"/>
-      <c r="H63" s="5" t="str">
-        <f>Table2[[#This Row],[firstName]]&amp;G62&amp;Table2[[#This Row],[lastName]]</f>
+      <c r="F64" s="5"/>
+      <c r="G64" s="5"/>
+      <c r="H64" s="5" t="str">
+        <f>Table2[[#This Row],[firstName]]&amp;G63&amp;Table2[[#This Row],[lastName]]</f>
         <v>Noah Benjamin Armstrong</v>
       </c>
-      <c r="I63" s="5"/>
-    </row>
-    <row r="64" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A64" t="s">
-        <v>253</v>
-      </c>
-      <c r="B64" t="s">
-        <v>254</v>
-      </c>
-      <c r="C64" t="s">
-        <v>255</v>
-      </c>
-      <c r="D64" t="s">
-        <v>346</v>
-      </c>
-      <c r="E64" t="s">
-        <v>359</v>
-      </c>
-      <c r="F64" t="s">
-        <v>379</v>
-      </c>
-      <c r="G64" t="s">
-        <v>384</v>
-      </c>
-      <c r="H64" t="str">
-        <f>Table2[[#This Row],[firstName]]&amp;G64&amp;Table2[[#This Row],[lastName]]</f>
-        <v>Allen Ming Winterbottom</v>
-      </c>
+      <c r="I64" s="5"/>
     </row>
     <row r="65" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
-        <v>22</v>
+        <v>253</v>
       </c>
       <c r="B65" t="s">
-        <v>23</v>
+        <v>254</v>
       </c>
       <c r="C65" t="s">
-        <v>24</v>
+        <v>255</v>
       </c>
       <c r="D65" t="s">
-        <v>269</v>
+        <v>346</v>
       </c>
       <c r="E65" t="s">
         <v>359</v>
       </c>
-      <c r="F65" t="str">
+      <c r="F65" t="s">
+        <v>379</v>
+      </c>
+      <c r="G65" t="s">
+        <v>384</v>
+      </c>
+      <c r="H65" t="str">
+        <f>Table2[[#This Row],[firstName]]&amp;G65&amp;Table2[[#This Row],[lastName]]</f>
+        <v>Allen Ming Winterbottom</v>
+      </c>
+    </row>
+    <row r="66" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A66" t="s">
+        <v>22</v>
+      </c>
+      <c r="B66" t="s">
+        <v>23</v>
+      </c>
+      <c r="C66" t="s">
+        <v>24</v>
+      </c>
+      <c r="D66" t="s">
+        <v>269</v>
+      </c>
+      <c r="E66" t="s">
+        <v>359</v>
+      </c>
+      <c r="F66" t="str">
         <f>groupList!C12</f>
         <v>https://discord.gg/W94UQfgw</v>
       </c>
-      <c r="G65" t="s">
-        <v>384</v>
-      </c>
-      <c r="H65" t="str">
-        <f>Table2[[#This Row],[firstName]]&amp;G65&amp;Table2[[#This Row],[lastName]]</f>
-        <v>Lola Iline Brown</v>
-      </c>
-    </row>
-    <row r="66" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A66" t="s">
-        <v>196</v>
-      </c>
-      <c r="B66" t="s">
-        <v>197</v>
-      </c>
-      <c r="C66" t="s">
-        <v>198</v>
-      </c>
-      <c r="D66" t="s">
-        <v>327</v>
-      </c>
-      <c r="E66" t="s">
-        <v>359</v>
-      </c>
-      <c r="F66" t="s">
-        <v>379</v>
-      </c>
       <c r="G66" t="s">
         <v>384</v>
       </c>
       <c r="H66" t="str">
         <f>Table2[[#This Row],[firstName]]&amp;G66&amp;Table2[[#This Row],[lastName]]</f>
-        <v>Tyler Rivers</v>
+        <v>Lola Iline Brown</v>
       </c>
     </row>
     <row r="67" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
-        <v>169</v>
+        <v>196</v>
       </c>
       <c r="B67" t="s">
-        <v>170</v>
+        <v>197</v>
       </c>
       <c r="C67" t="s">
-        <v>171</v>
+        <v>198</v>
       </c>
       <c r="D67" t="s">
-        <v>318</v>
+        <v>327</v>
       </c>
       <c r="E67" t="s">
         <v>359</v>
@@ -4005,21 +4007,21 @@
       </c>
       <c r="H67" t="str">
         <f>Table2[[#This Row],[firstName]]&amp;G67&amp;Table2[[#This Row],[lastName]]</f>
-        <v>Dayton Thor Muckerheide</v>
+        <v>Tyler Rivers</v>
       </c>
     </row>
     <row r="68" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
-        <v>73</v>
+        <v>169</v>
       </c>
       <c r="B68" t="s">
-        <v>74</v>
+        <v>170</v>
       </c>
       <c r="C68" t="s">
-        <v>75</v>
+        <v>171</v>
       </c>
       <c r="D68" t="s">
-        <v>286</v>
+        <v>318</v>
       </c>
       <c r="E68" t="s">
         <v>359</v>
@@ -4032,21 +4034,21 @@
       </c>
       <c r="H68" t="str">
         <f>Table2[[#This Row],[firstName]]&amp;G68&amp;Table2[[#This Row],[lastName]]</f>
-        <v>Will Richard Dowdle</v>
+        <v>Dayton Thor Muckerheide</v>
       </c>
     </row>
     <row r="69" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
-        <v>133</v>
+        <v>73</v>
       </c>
       <c r="B69" t="s">
-        <v>134</v>
+        <v>74</v>
       </c>
       <c r="C69" t="s">
-        <v>135</v>
+        <v>75</v>
       </c>
       <c r="D69" t="s">
-        <v>306</v>
+        <v>286</v>
       </c>
       <c r="E69" t="s">
         <v>359</v>
@@ -4059,101 +4061,101 @@
       </c>
       <c r="H69" t="str">
         <f>Table2[[#This Row],[firstName]]&amp;G69&amp;Table2[[#This Row],[lastName]]</f>
+        <v>Will Richard Dowdle</v>
+      </c>
+    </row>
+    <row r="70" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A70" t="s">
+        <v>133</v>
+      </c>
+      <c r="B70" t="s">
+        <v>134</v>
+      </c>
+      <c r="C70" t="s">
+        <v>135</v>
+      </c>
+      <c r="D70" t="s">
+        <v>306</v>
+      </c>
+      <c r="E70" t="s">
+        <v>359</v>
+      </c>
+      <c r="F70" t="s">
+        <v>379</v>
+      </c>
+      <c r="G70" t="s">
+        <v>384</v>
+      </c>
+      <c r="H70" t="str">
+        <f>Table2[[#This Row],[firstName]]&amp;G70&amp;Table2[[#This Row],[lastName]]</f>
         <v>Reaghan Marie Kryski</v>
       </c>
     </row>
-    <row r="70" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A70" s="5" t="s">
+    <row r="71" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A71" s="5" t="s">
         <v>392</v>
       </c>
-      <c r="B70" s="5" t="s">
+      <c r="B71" s="5" t="s">
         <v>86</v>
       </c>
-      <c r="C70" s="5" t="s">
+      <c r="C71" s="5" t="s">
         <v>394</v>
       </c>
-      <c r="D70" s="5" t="s">
+      <c r="D71" s="5" t="s">
         <v>393</v>
       </c>
-      <c r="E70" s="5" t="str">
-        <f>E69</f>
+      <c r="E71" s="5" t="str">
+        <f>E70</f>
         <v>aalto-studio</v>
       </c>
-      <c r="F70" s="5"/>
-      <c r="G70" s="5"/>
-      <c r="H70" s="5" t="str">
-        <f>Table2[[#This Row],[firstName]]&amp;G62&amp;Table2[[#This Row],[lastName]]</f>
+      <c r="F71" s="5"/>
+      <c r="G71" s="5"/>
+      <c r="H71" s="5" t="str">
+        <f>Table2[[#This Row],[firstName]]&amp;G63&amp;Table2[[#This Row],[lastName]]</f>
         <v>Jack Girouard Grant</v>
       </c>
-      <c r="I70" s="5"/>
-    </row>
-    <row r="71" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A71" t="s">
+      <c r="I71" s="5"/>
+    </row>
+    <row r="72" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A72" t="s">
         <v>181</v>
       </c>
-      <c r="B71" t="s">
+      <c r="B72" t="s">
         <v>182</v>
       </c>
-      <c r="C71" t="s">
+      <c r="C72" t="s">
         <v>183</v>
       </c>
-      <c r="D71" t="s">
+      <c r="D72" t="s">
         <v>322</v>
       </c>
-      <c r="E71" t="s">
+      <c r="E72" t="s">
         <v>360</v>
       </c>
-      <c r="F71" t="str">
+      <c r="F72" t="str">
         <f>groupList!C13</f>
         <v>https://discord.gg/cUNbrNJu</v>
       </c>
-      <c r="G71" t="s">
-        <v>384</v>
-      </c>
-      <c r="H71" t="str">
-        <f>Table2[[#This Row],[firstName]]&amp;G71&amp;Table2[[#This Row],[lastName]]</f>
-        <v>Sruthi Paluri</v>
-      </c>
-    </row>
-    <row r="72" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A72" t="s">
-        <v>160</v>
-      </c>
-      <c r="B72" t="s">
-        <v>161</v>
-      </c>
-      <c r="C72" t="s">
-        <v>162</v>
-      </c>
-      <c r="D72" t="s">
-        <v>315</v>
-      </c>
-      <c r="E72" t="s">
-        <v>360</v>
-      </c>
-      <c r="F72" t="s">
-        <v>381</v>
-      </c>
       <c r="G72" t="s">
         <v>384</v>
       </c>
       <c r="H72" t="str">
         <f>Table2[[#This Row],[firstName]]&amp;G72&amp;Table2[[#This Row],[lastName]]</f>
-        <v>Stephen Christian Merrill III</v>
+        <v>Sruthi Paluri</v>
       </c>
     </row>
     <row r="73" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
-        <v>52</v>
+        <v>160</v>
       </c>
       <c r="B73" t="s">
-        <v>53</v>
+        <v>161</v>
       </c>
       <c r="C73" t="s">
-        <v>54</v>
+        <v>162</v>
       </c>
       <c r="D73" t="s">
-        <v>279</v>
+        <v>315</v>
       </c>
       <c r="E73" t="s">
         <v>360</v>
@@ -4166,23 +4168,21 @@
       </c>
       <c r="H73" t="str">
         <f>Table2[[#This Row],[firstName]]&amp;G73&amp;Table2[[#This Row],[lastName]]</f>
-        <v>Callie Rachelle Davidson</v>
-      </c>
-      <c r="K73" s="4"/>
-      <c r="L73" s="1"/>
+        <v>Stephen Christian Merrill III</v>
+      </c>
     </row>
     <row r="74" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
-        <v>256</v>
+        <v>52</v>
       </c>
       <c r="B74" t="s">
-        <v>257</v>
+        <v>53</v>
       </c>
       <c r="C74" t="s">
-        <v>258</v>
+        <v>54</v>
       </c>
       <c r="D74" t="s">
-        <v>347</v>
+        <v>279</v>
       </c>
       <c r="E74" t="s">
         <v>360</v>
@@ -4195,21 +4195,23 @@
       </c>
       <c r="H74" t="str">
         <f>Table2[[#This Row],[firstName]]&amp;G74&amp;Table2[[#This Row],[lastName]]</f>
-        <v>Evan James Zido</v>
-      </c>
+        <v>Callie Rachelle Davidson</v>
+      </c>
+      <c r="K74" s="4"/>
+      <c r="L74" s="1"/>
     </row>
     <row r="75" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
-        <v>148</v>
+        <v>256</v>
       </c>
       <c r="B75" t="s">
-        <v>149</v>
+        <v>257</v>
       </c>
       <c r="C75" t="s">
-        <v>150</v>
+        <v>258</v>
       </c>
       <c r="D75" t="s">
-        <v>311</v>
+        <v>347</v>
       </c>
       <c r="E75" t="s">
         <v>360</v>
@@ -4222,21 +4224,21 @@
       </c>
       <c r="H75" t="str">
         <f>Table2[[#This Row],[firstName]]&amp;G75&amp;Table2[[#This Row],[lastName]]</f>
-        <v>Cate Yu Maren</v>
+        <v>Evan James Zido</v>
       </c>
     </row>
     <row r="76" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
-        <v>136</v>
+        <v>148</v>
       </c>
       <c r="B76" t="s">
-        <v>137</v>
+        <v>149</v>
       </c>
       <c r="C76" t="s">
-        <v>138</v>
+        <v>150</v>
       </c>
       <c r="D76" t="s">
-        <v>307</v>
+        <v>311</v>
       </c>
       <c r="E76" t="s">
         <v>360</v>
@@ -4249,100 +4251,100 @@
       </c>
       <c r="H76" t="str">
         <f>Table2[[#This Row],[firstName]]&amp;G76&amp;Table2[[#This Row],[lastName]]</f>
+        <v>Cate Yu Maren</v>
+      </c>
+    </row>
+    <row r="77" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A77" t="s">
+        <v>136</v>
+      </c>
+      <c r="B77" t="s">
+        <v>137</v>
+      </c>
+      <c r="C77" t="s">
+        <v>138</v>
+      </c>
+      <c r="D77" t="s">
+        <v>307</v>
+      </c>
+      <c r="E77" t="s">
+        <v>360</v>
+      </c>
+      <c r="F77" t="s">
+        <v>381</v>
+      </c>
+      <c r="G77" t="s">
+        <v>384</v>
+      </c>
+      <c r="H77" t="str">
+        <f>Table2[[#This Row],[firstName]]&amp;G77&amp;Table2[[#This Row],[lastName]]</f>
         <v>Piper Dawn Leis</v>
       </c>
     </row>
-    <row r="77" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A77" s="5" t="s">
+    <row r="78" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A78" s="5" t="s">
         <v>388</v>
       </c>
-      <c r="B77" s="5" t="s">
+      <c r="B78" s="5" t="s">
         <v>389</v>
       </c>
-      <c r="C77" s="5" t="s">
+      <c r="C78" s="5" t="s">
         <v>390</v>
       </c>
-      <c r="D77" s="5" t="s">
+      <c r="D78" s="5" t="s">
         <v>391</v>
       </c>
-      <c r="E77" s="5" t="s">
+      <c r="E78" s="5" t="s">
         <v>360</v>
       </c>
-      <c r="F77" s="5"/>
-      <c r="G77" s="5"/>
-      <c r="H77" s="5" t="str">
-        <f>Table2[[#This Row],[firstName]]&amp;G62&amp;Table2[[#This Row],[lastName]]</f>
+      <c r="F78" s="5"/>
+      <c r="G78" s="5"/>
+      <c r="H78" s="5" t="str">
+        <f>Table2[[#This Row],[firstName]]&amp;G63&amp;Table2[[#This Row],[lastName]]</f>
         <v>Gerald Thomas Kuhel</v>
       </c>
-      <c r="I77" s="5"/>
-    </row>
-    <row r="78" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A78" t="s">
+      <c r="I78" s="5"/>
+    </row>
+    <row r="79" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A79" t="s">
         <v>49</v>
       </c>
-      <c r="B78" t="s">
+      <c r="B79" t="s">
         <v>50</v>
       </c>
-      <c r="C78" t="s">
+      <c r="C79" t="s">
         <v>51</v>
       </c>
-      <c r="D78" t="s">
+      <c r="D79" t="s">
         <v>278</v>
       </c>
-      <c r="E78" t="s">
+      <c r="E79" t="s">
         <v>361</v>
       </c>
-      <c r="F78" t="str">
+      <c r="F79" t="str">
         <f>groupList!C14</f>
         <v>https://discord.gg/D3YRdGeQ</v>
       </c>
-      <c r="G78" t="s">
-        <v>384</v>
-      </c>
-      <c r="H78" t="str">
-        <f>Table2[[#This Row],[firstName]]&amp;G78&amp;Table2[[#This Row],[lastName]]</f>
-        <v>Gage Alexander William Crenshaw</v>
-      </c>
-    </row>
-    <row r="79" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A79" t="s">
-        <v>235</v>
-      </c>
-      <c r="B79" t="s">
-        <v>236</v>
-      </c>
-      <c r="C79" t="s">
-        <v>237</v>
-      </c>
-      <c r="D79" t="s">
-        <v>340</v>
-      </c>
-      <c r="E79" t="s">
-        <v>361</v>
-      </c>
-      <c r="F79" t="s">
-        <v>382</v>
-      </c>
       <c r="G79" t="s">
         <v>384</v>
       </c>
       <c r="H79" t="str">
         <f>Table2[[#This Row],[firstName]]&amp;G79&amp;Table2[[#This Row],[lastName]]</f>
-        <v>Zaida Nicole Velasco Merino V</v>
+        <v>Gage Alexander William Crenshaw</v>
       </c>
     </row>
     <row r="80" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
-        <v>10</v>
+        <v>235</v>
       </c>
       <c r="B80" t="s">
-        <v>11</v>
+        <v>236</v>
       </c>
       <c r="C80" t="s">
-        <v>12</v>
+        <v>237</v>
       </c>
       <c r="D80" t="s">
-        <v>265</v>
+        <v>340</v>
       </c>
       <c r="E80" t="s">
         <v>361</v>
@@ -4355,21 +4357,21 @@
       </c>
       <c r="H80" t="str">
         <f>Table2[[#This Row],[firstName]]&amp;G80&amp;Table2[[#This Row],[lastName]]</f>
-        <v>Chase B Bailey</v>
+        <v>Zaida Nicole Velasco Merino V</v>
       </c>
     </row>
     <row r="81" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
-        <v>31</v>
+        <v>10</v>
       </c>
       <c r="B81" t="s">
-        <v>32</v>
+        <v>11</v>
       </c>
       <c r="C81" t="s">
-        <v>33</v>
+        <v>12</v>
       </c>
       <c r="D81" t="s">
-        <v>272</v>
+        <v>265</v>
       </c>
       <c r="E81" t="s">
         <v>361</v>
@@ -4382,21 +4384,21 @@
       </c>
       <c r="H81" t="str">
         <f>Table2[[#This Row],[firstName]]&amp;G81&amp;Table2[[#This Row],[lastName]]</f>
-        <v>Connor Coco-Gray</v>
+        <v>Chase B Bailey</v>
       </c>
     </row>
     <row r="82" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
-        <v>58</v>
+        <v>31</v>
       </c>
       <c r="B82" t="s">
-        <v>59</v>
+        <v>32</v>
       </c>
       <c r="C82" t="s">
-        <v>60</v>
+        <v>33</v>
       </c>
       <c r="D82" t="s">
-        <v>281</v>
+        <v>272</v>
       </c>
       <c r="E82" t="s">
         <v>361</v>
@@ -4409,21 +4411,21 @@
       </c>
       <c r="H82" t="str">
         <f>Table2[[#This Row],[firstName]]&amp;G82&amp;Table2[[#This Row],[lastName]]</f>
-        <v>Isabella Rhea Dew</v>
+        <v>Connor Coco-Gray</v>
       </c>
     </row>
     <row r="83" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
-        <v>112</v>
+        <v>58</v>
       </c>
       <c r="B83" t="s">
-        <v>113</v>
+        <v>59</v>
       </c>
       <c r="C83" t="s">
-        <v>114</v>
+        <v>60</v>
       </c>
       <c r="D83" t="s">
-        <v>299</v>
+        <v>281</v>
       </c>
       <c r="E83" t="s">
         <v>361</v>
@@ -4436,100 +4438,100 @@
       </c>
       <c r="H83" t="str">
         <f>Table2[[#This Row],[firstName]]&amp;G83&amp;Table2[[#This Row],[lastName]]</f>
+        <v>Isabella Rhea Dew</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A84" t="s">
+        <v>112</v>
+      </c>
+      <c r="B84" t="s">
+        <v>113</v>
+      </c>
+      <c r="C84" t="s">
+        <v>114</v>
+      </c>
+      <c r="D84" t="s">
+        <v>299</v>
+      </c>
+      <c r="E84" t="s">
+        <v>361</v>
+      </c>
+      <c r="F84" t="s">
+        <v>382</v>
+      </c>
+      <c r="G84" t="s">
+        <v>384</v>
+      </c>
+      <c r="H84" t="str">
+        <f>Table2[[#This Row],[firstName]]&amp;G84&amp;Table2[[#This Row],[lastName]]</f>
         <v>Joe John Hollback</v>
       </c>
     </row>
-    <row r="84" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A84" s="5" t="s">
+    <row r="85" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A85" s="5" t="s">
         <v>385</v>
       </c>
-      <c r="B84" s="5" t="s">
+      <c r="B85" s="5" t="s">
         <v>179</v>
       </c>
-      <c r="C84" s="5" t="s">
+      <c r="C85" s="5" t="s">
         <v>386</v>
       </c>
-      <c r="D84" s="5" t="s">
+      <c r="D85" s="5" t="s">
         <v>387</v>
       </c>
-      <c r="E84" s="5" t="s">
+      <c r="E85" s="5" t="s">
         <v>361</v>
       </c>
-      <c r="F84" s="5"/>
-      <c r="G84" s="5"/>
-      <c r="H84" s="5" t="str">
-        <f>Table2[[#This Row],[firstName]]&amp;G62&amp;Table2[[#This Row],[lastName]]</f>
+      <c r="F85" s="5"/>
+      <c r="G85" s="5"/>
+      <c r="H85" s="5" t="str">
+        <f>Table2[[#This Row],[firstName]]&amp;G63&amp;Table2[[#This Row],[lastName]]</f>
         <v>Autumn Renee Myers</v>
       </c>
-      <c r="I84" s="5"/>
-    </row>
-    <row r="85" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A85" t="s">
+      <c r="I85" s="5"/>
+    </row>
+    <row r="86" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A86" t="s">
         <v>94</v>
       </c>
-      <c r="B85" t="s">
+      <c r="B86" t="s">
         <v>95</v>
       </c>
-      <c r="C85" t="s">
+      <c r="C86" t="s">
         <v>96</v>
       </c>
-      <c r="D85" t="s">
+      <c r="D86" t="s">
         <v>293</v>
       </c>
-      <c r="E85" t="s">
+      <c r="E86" t="s">
         <v>362</v>
       </c>
-      <c r="F85" t="str">
+      <c r="F86" t="str">
         <f>groupList!C15</f>
         <v>https://discord.gg/eTbVRC9U</v>
       </c>
-      <c r="G85" t="s">
-        <v>384</v>
-      </c>
-      <c r="H85" t="str">
-        <f>Table2[[#This Row],[firstName]]&amp;G85&amp;Table2[[#This Row],[lastName]]</f>
-        <v>Gracie N Haddad</v>
-      </c>
-    </row>
-    <row r="86" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A86" t="s">
-        <v>25</v>
-      </c>
-      <c r="B86" t="s">
-        <v>26</v>
-      </c>
-      <c r="C86" t="s">
-        <v>27</v>
-      </c>
-      <c r="D86" t="s">
-        <v>270</v>
-      </c>
-      <c r="E86" t="s">
-        <v>362</v>
-      </c>
-      <c r="F86" t="s">
-        <v>383</v>
-      </c>
       <c r="G86" t="s">
         <v>384</v>
       </c>
       <c r="H86" t="str">
         <f>Table2[[#This Row],[firstName]]&amp;G86&amp;Table2[[#This Row],[lastName]]</f>
-        <v>Lucas Timothy Brummitt</v>
+        <v>Gracie N Haddad</v>
       </c>
     </row>
     <row r="87" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
-        <v>85</v>
+        <v>25</v>
       </c>
       <c r="B87" t="s">
-        <v>86</v>
+        <v>26</v>
       </c>
       <c r="C87" t="s">
-        <v>87</v>
+        <v>27</v>
       </c>
       <c r="D87" t="s">
-        <v>290</v>
+        <v>270</v>
       </c>
       <c r="E87" t="s">
         <v>362</v>
@@ -4542,21 +4544,21 @@
       </c>
       <c r="H87" t="str">
         <f>Table2[[#This Row],[firstName]]&amp;G87&amp;Table2[[#This Row],[lastName]]</f>
-        <v>Aries Nicole Grant</v>
+        <v>Lucas Timothy Brummitt</v>
       </c>
     </row>
     <row r="88" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
-        <v>70</v>
+        <v>85</v>
       </c>
       <c r="B88" t="s">
-        <v>71</v>
+        <v>86</v>
       </c>
       <c r="C88" t="s">
-        <v>72</v>
+        <v>87</v>
       </c>
       <c r="D88" t="s">
-        <v>285</v>
+        <v>290</v>
       </c>
       <c r="E88" t="s">
         <v>362</v>
@@ -4569,21 +4571,21 @@
       </c>
       <c r="H88" t="str">
         <f>Table2[[#This Row],[firstName]]&amp;G88&amp;Table2[[#This Row],[lastName]]</f>
-        <v>Saanjh Dodwani</v>
+        <v>Aries Nicole Grant</v>
       </c>
     </row>
     <row r="89" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
-        <v>244</v>
+        <v>70</v>
       </c>
       <c r="B89" t="s">
-        <v>245</v>
+        <v>71</v>
       </c>
       <c r="C89" t="s">
-        <v>246</v>
+        <v>72</v>
       </c>
       <c r="D89" t="s">
-        <v>343</v>
+        <v>285</v>
       </c>
       <c r="E89" t="s">
         <v>362</v>
@@ -4596,21 +4598,21 @@
       </c>
       <c r="H89" t="str">
         <f>Table2[[#This Row],[firstName]]&amp;G89&amp;Table2[[#This Row],[lastName]]</f>
-        <v>George Kinsey Webb</v>
+        <v>Saanjh Dodwani</v>
       </c>
     </row>
     <row r="90" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
-        <v>4</v>
+        <v>244</v>
       </c>
       <c r="B90" t="s">
-        <v>5</v>
+        <v>245</v>
       </c>
       <c r="C90" t="s">
-        <v>6</v>
+        <v>246</v>
       </c>
       <c r="D90" t="s">
-        <v>263</v>
+        <v>343</v>
       </c>
       <c r="E90" t="s">
         <v>362</v>
@@ -4623,21 +4625,21 @@
       </c>
       <c r="H90" t="str">
         <f>Table2[[#This Row],[firstName]]&amp;G90&amp;Table2[[#This Row],[lastName]]</f>
-        <v>Avery Michelle Allen</v>
+        <v>George Kinsey Webb</v>
       </c>
     </row>
     <row r="91" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
-        <v>130</v>
+        <v>4</v>
       </c>
       <c r="B91" t="s">
-        <v>131</v>
+        <v>5</v>
       </c>
       <c r="C91" t="s">
-        <v>132</v>
+        <v>6</v>
       </c>
       <c r="D91" t="s">
-        <v>305</v>
+        <v>263</v>
       </c>
       <c r="E91" t="s">
         <v>362</v>
@@ -4650,29 +4652,56 @@
       </c>
       <c r="H91" t="str">
         <f>Table2[[#This Row],[firstName]]&amp;G91&amp;Table2[[#This Row],[lastName]]</f>
+        <v>Avery Michelle Allen</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A92" t="s">
+        <v>130</v>
+      </c>
+      <c r="B92" t="s">
+        <v>131</v>
+      </c>
+      <c r="C92" t="s">
+        <v>132</v>
+      </c>
+      <c r="D92" t="s">
+        <v>305</v>
+      </c>
+      <c r="E92" t="s">
+        <v>362</v>
+      </c>
+      <c r="F92" t="s">
+        <v>383</v>
+      </c>
+      <c r="G92" t="s">
+        <v>384</v>
+      </c>
+      <c r="H92" t="str">
+        <f>Table2[[#This Row],[firstName]]&amp;G92&amp;Table2[[#This Row],[lastName]]</f>
         <v>Kayleigh Nichole Keyes</v>
       </c>
     </row>
-    <row r="95" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A95" s="3" t="s">
+    <row r="96" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A96" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B95" s="3" t="s">
+      <c r="B96" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C95" s="3" t="s">
+      <c r="C96" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="D95" s="3" t="s">
+      <c r="D96" s="3" t="s">
         <v>264</v>
       </c>
-      <c r="E95" s="3" t="s">
+      <c r="E96" s="3" t="s">
         <v>361</v>
       </c>
-      <c r="F95" s="3" t="s">
+      <c r="F96" s="3" t="s">
         <v>382</v>
       </c>
-      <c r="G95" t="s">
+      <c r="G96" t="s">
         <v>384</v>
       </c>
     </row>
